--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="149">
   <si>
     <t>Profile</t>
   </si>
@@ -47,18 +47,69 @@
     <t>Method</t>
   </si>
   <si>
+    <t>advanced-vital-signs</t>
+  </si>
+  <si>
+    <t>Advanced Vital Signs Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>LOINC#87834-8</t>
+  </si>
+  <si>
+    <t>LOINC#87835-5</t>
+  </si>
+  <si>
+    <t>LOINC#8478-0</t>
+  </si>
+  <si>
+    <t>LOINC#87836-3</t>
+  </si>
+  <si>
+    <t>LOINC#87837-1</t>
+  </si>
+  <si>
+    <t>LOINC#87838-9</t>
+  </si>
+  <si>
+    <t>LOINC#87839-7</t>
+  </si>
+  <si>
+    <t>LOINC#87840-5</t>
+  </si>
+  <si>
+    <t>LOINC#87841-3</t>
+  </si>
+  <si>
+    <t>LOINC#87842-1</t>
+  </si>
+  <si>
+    <t>LOINC#87843-9</t>
+  </si>
+  <si>
     <t>blood-pressure-observation</t>
   </si>
   <si>
     <t>Blood Pressure Observation Profile</t>
   </si>
   <si>
-    <t>Observation Category Codes#vital-signs</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>LOINC#85354-9</t>
   </si>
   <si>
@@ -68,9 +119,6 @@
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>LOINC#8480-6</t>
   </si>
   <si>
@@ -86,12 +134,6 @@
     <t>LOINC#39156-5</t>
   </si>
   <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
     <t>body-composition-observation</t>
   </si>
   <si>
@@ -122,9 +164,6 @@
     <t>Body Metrics Observation Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
     <t>calorie-intake-observation</t>
   </si>
   <si>
@@ -137,6 +176,27 @@
     <t>LOINC#9051-4</t>
   </si>
   <si>
+    <t>environmental-observation</t>
+  </si>
+  <si>
+    <t>Environmental Observation Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#environment</t>
+  </si>
+  <si>
+    <t>fertility-observation</t>
+  </si>
+  <si>
+    <t>Fertility Observation Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#reproductive</t>
+  </si>
+  <si>
+    <t>LOINC#8669-4</t>
+  </si>
+  <si>
     <t>heart-rate-observation</t>
   </si>
   <si>
@@ -218,6 +278,48 @@
     <t>string</t>
   </si>
   <si>
+    <t>mobility-profile</t>
+  </si>
+  <si>
+    <t>Mobility Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#activity</t>
+  </si>
+  <si>
+    <t>LOINC#LA32-8</t>
+  </si>
+  <si>
+    <t>LOINC#LA32-9</t>
+  </si>
+  <si>
+    <t>LOINC#LA29042-4</t>
+  </si>
+  <si>
+    <t>LOINC#LA29043-2</t>
+  </si>
+  <si>
+    <t>noise-exposure-observation</t>
+  </si>
+  <si>
+    <t>Noise Exposure Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#28573-7</t>
+  </si>
+  <si>
+    <t>LOINC#89020-2</t>
+  </si>
+  <si>
+    <t>LOINC#89021-0</t>
+  </si>
+  <si>
+    <t>LOINC#89024-4</t>
+  </si>
+  <si>
+    <t>LOINC#89025-1</t>
+  </si>
+  <si>
     <t>nutrition-intake-observation</t>
   </si>
   <si>
@@ -239,9 +341,6 @@
     <t>Physical Activity Observation Profile</t>
   </si>
   <si>
-    <t>Observation Category Codes#activity</t>
-  </si>
-  <si>
     <t>https://github.com/RicardoLSantos/shorthand/ValueSet/physical-activity-type-vs (required)</t>
   </si>
   <si>
@@ -257,6 +356,24 @@
     <t>LOINC#55424-6</t>
   </si>
   <si>
+    <t>reproductive-observation</t>
+  </si>
+  <si>
+    <t>Reproductive Health Base Profile</t>
+  </si>
+  <si>
+    <t>LOINC#72514-3</t>
+  </si>
+  <si>
+    <t>LOINC#103332-8</t>
+  </si>
+  <si>
+    <t>LOINC#103334-4</t>
+  </si>
+  <si>
+    <t>LOINC#103335-1</t>
+  </si>
+  <si>
     <t>sleep-observation</t>
   </si>
   <si>
@@ -291,6 +408,39 @@
   </si>
   <si>
     <t>LOINC#93837-3</t>
+  </si>
+  <si>
+    <t>uv-exposure-observation</t>
+  </si>
+  <si>
+    <t>UV Exposure Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#28574-5</t>
+  </si>
+  <si>
+    <t>LOINC#89022-8</t>
+  </si>
+  <si>
+    <t>LOINC#89023-6</t>
+  </si>
+  <si>
+    <t>LOINC#89026-9</t>
+  </si>
+  <si>
+    <t>LOINC#89027-7</t>
+  </si>
+  <si>
+    <t>walking-speed-observation</t>
+  </si>
+  <si>
+    <t>Walking Speed Observation Profile</t>
+  </si>
+  <si>
+    <t>walking-steadiness-observation</t>
+  </si>
+  <si>
+    <t>Walking Steadiness Observation Profile</t>
   </si>
   <si>
     <t>water-intake-observation</t>
@@ -442,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -497,10 +647,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -590,28 +740,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>23</v>
-      </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -625,28 +775,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -663,7 +813,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>14</v>
@@ -672,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
@@ -681,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -698,7 +848,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -707,7 +857,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -716,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -733,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -742,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -751,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -768,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
@@ -777,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
@@ -786,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -803,17 +953,17 @@
         <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>33</v>
-      </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
       </c>
@@ -821,7 +971,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -835,28 +985,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -870,28 +1020,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -905,10 +1055,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -917,16 +1067,16 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -943,7 +1093,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>14</v>
@@ -952,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -961,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -978,7 +1128,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -987,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -996,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -1010,25 +1160,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>17</v>
@@ -1045,25 +1195,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>17</v>
@@ -1080,28 +1230,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1115,25 +1265,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>17</v>
@@ -1150,28 +1300,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1188,7 +1338,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1197,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>14</v>
@@ -1206,7 +1356,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1223,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1232,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
@@ -1241,7 +1391,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1255,28 +1405,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1290,25 +1440,25 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>17</v>
@@ -1325,28 +1475,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1360,28 +1510,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>58</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1407,7 +1557,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
@@ -1416,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1442,7 +1592,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>14</v>
@@ -1451,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1477,7 +1627,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
@@ -1486,7 +1636,7 @@
         <v>14</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1500,28 +1650,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1535,28 +1685,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1570,13 +1720,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
@@ -1585,13 +1735,13 @@
         <v>14</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1608,7 +1758,7 @@
         <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>14</v>
@@ -1617,7 +1767,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
@@ -1626,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -1643,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>14</v>
@@ -1652,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
@@ -1661,7 +1811,7 @@
         <v>14</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1675,28 +1825,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -1710,28 +1860,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -1745,28 +1895,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1783,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -1792,7 +1942,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -1801,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -1818,7 +1968,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1827,7 +1977,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
@@ -1836,7 +1986,7 @@
         <v>14</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -1853,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -1862,7 +2012,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -1871,7 +2021,7 @@
         <v>14</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -1885,10 +2035,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>14</v>
@@ -1897,16 +2047,16 @@
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -1923,7 +2073,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -1932,7 +2082,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
@@ -1941,7 +2091,7 @@
         <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -1958,17 +2108,17 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="F44" t="s" s="2">
         <v>14</v>
       </c>
@@ -1976,7 +2126,7 @@
         <v>14</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -1993,7 +2143,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>14</v>
@@ -2002,7 +2152,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
@@ -2011,7 +2161,7 @@
         <v>14</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2028,7 +2178,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>14</v>
@@ -2037,7 +2187,7 @@
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>14</v>
@@ -2046,7 +2196,7 @@
         <v>14</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2060,28 +2210,28 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>18</v>
@@ -2095,36 +2245,1821 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="C53" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="F53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K48" t="s" s="2">
+      <c r="D59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="165">
   <si>
     <t>Profile</t>
   </si>
@@ -408,6 +408,54 @@
   </si>
   <si>
     <t>LOINC#93837-3</t>
+  </si>
+  <si>
+    <t>social-interaction</t>
+  </si>
+  <si>
+    <t>Social Interaction Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>LOINC#96766-1</t>
+  </si>
+  <si>
+    <t>LOINC#89597-9</t>
+  </si>
+  <si>
+    <t>LOINC#89598-7</t>
+  </si>
+  <si>
+    <t>LOINC#89599-5</t>
+  </si>
+  <si>
+    <t>LOINC#89600-1</t>
+  </si>
+  <si>
+    <t>stress-level</t>
+  </si>
+  <si>
+    <t>Stress Level Profile</t>
+  </si>
+  <si>
+    <t>LOINC#89592-0</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>LOINC#89593-8</t>
+  </si>
+  <si>
+    <t>LOINC#89594-6</t>
+  </si>
+  <si>
+    <t>LOINC#89595-3</t>
+  </si>
+  <si>
+    <t>LOINC#89596-1</t>
   </si>
   <si>
     <t>uv-exposure-observation</t>
@@ -592,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3336,13 +3384,13 @@
         <v>133</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>14</v>
@@ -3351,7 +3399,7 @@
         <v>16</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>18</v>
@@ -3377,7 +3425,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>14</v>
@@ -3412,7 +3460,7 @@
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>14</v>
@@ -3447,7 +3495,7 @@
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>14</v>
@@ -3456,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>18</v>
@@ -3482,7 +3530,7 @@
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>14</v>
@@ -3505,19 +3553,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>14</v>
@@ -3526,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>18</v>
@@ -3543,7 +3591,7 @@
         <v>14</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>14</v>
@@ -3552,7 +3600,7 @@
         <v>14</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>14</v>
@@ -3578,7 +3626,7 @@
         <v>14</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>14</v>
@@ -3587,7 +3635,7 @@
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>14</v>
@@ -3613,7 +3661,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>14</v>
@@ -3622,7 +3670,7 @@
         <v>14</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>14</v>
@@ -3648,7 +3696,7 @@
         <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>14</v>
@@ -3657,7 +3705,7 @@
         <v>14</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
@@ -3680,25 +3728,25 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>17</v>
@@ -3718,7 +3766,7 @@
         <v>14</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>14</v>
@@ -3727,7 +3775,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>14</v>
@@ -3750,25 +3798,25 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>17</v>
@@ -3788,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>14</v>
@@ -3797,7 +3845,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
@@ -3806,7 +3854,7 @@
         <v>14</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>18</v>
@@ -3823,7 +3871,7 @@
         <v>14</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>14</v>
@@ -3832,7 +3880,7 @@
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>14</v>
@@ -3855,13 +3903,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
@@ -3873,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>17</v>
@@ -3893,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>14</v>
@@ -3902,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>14</v>
@@ -3928,7 +3976,7 @@
         <v>14</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>14</v>
@@ -3937,7 +3985,7 @@
         <v>14</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>14</v>
@@ -3963,7 +4011,7 @@
         <v>14</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>14</v>
@@ -3972,7 +4020,7 @@
         <v>14</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>14</v>
@@ -3995,25 +4043,25 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>17</v>
@@ -4030,36 +4078,386 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C109" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D99" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E99" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s" s="2">
+      <c r="D109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H99" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K99" t="s" s="2">
+      <c r="H109" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K109" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -341,7 +341,7 @@
     <t>Physical Activity Observation Profile</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/physical-activity-type-vs (required)</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/physical-activity-type-vs (required)</t>
   </si>
   <si>
     <t>LOINC#55423-8</t>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="164">
   <si>
     <t>Profile</t>
   </si>
@@ -47,6 +47,54 @@
     <t>Method</t>
   </si>
   <si>
+    <t>activity-observation</t>
+  </si>
+  <si>
+    <t>Sleep Observation Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#activity</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#sleep-panel</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#sleep-time-bed</t>
+  </si>
+  <si>
+    <t>LOINC#93832-4</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#sleep-deep</t>
+  </si>
+  <si>
+    <t>LOINC#93829-0</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#sleep-light</t>
+  </si>
+  <si>
+    <t>LOINC#9279-1</t>
+  </si>
+  <si>
+    <t>LOINC#80404-7</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#sleep-awakenings</t>
+  </si>
+  <si>
     <t>advanced-vital-signs</t>
   </si>
   <si>
@@ -56,52 +104,43 @@
     <t>Observation Category Codes#vital-signs</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
   </si>
   <si>
     <t>dateTime</t>
   </si>
   <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>LOINC#87834-8</t>
-  </si>
-  <si>
-    <t>LOINC#87835-5</t>
+    <t>Lifestyle Medicine Observation Codes#hrv-frequency</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#hrv-entropy</t>
   </si>
   <si>
     <t>LOINC#8478-0</t>
   </si>
   <si>
-    <t>LOINC#87836-3</t>
-  </si>
-  <si>
-    <t>LOINC#87837-1</t>
-  </si>
-  <si>
-    <t>LOINC#87838-9</t>
-  </si>
-  <si>
-    <t>LOINC#87839-7</t>
-  </si>
-  <si>
-    <t>LOINC#87840-5</t>
-  </si>
-  <si>
-    <t>LOINC#87841-3</t>
-  </si>
-  <si>
-    <t>LOINC#87842-1</t>
-  </si>
-  <si>
-    <t>LOINC#87843-9</t>
+    <t>Lifestyle Medicine Observation Codes#pulse-wave</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#respiratory-variability</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#oxygenation-index</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#physiological-stress</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#temperature-gradient</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#autonomic-balance</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#recovery-rate</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#allostatic-load</t>
   </si>
   <si>
     <t>blood-pressure-observation</t>
@@ -140,22 +179,22 @@
     <t>Body Composition Profile</t>
   </si>
   <si>
-    <t>LOINC#88365-2</t>
+    <t>Lifestyle Medicine Observation Codes#body-composition-panel</t>
   </si>
   <si>
     <t>LOINC#41982-0</t>
   </si>
   <si>
-    <t>LOINC#291-7</t>
-  </si>
-  <si>
-    <t>LOINC#73708-0</t>
-  </si>
-  <si>
-    <t>LOINC#73713-0</t>
-  </si>
-  <si>
-    <t>LOINC#73711-4</t>
+    <t>LOINC#8342-8</t>
+  </si>
+  <si>
+    <t>LOINC#101683-1</t>
+  </si>
+  <si>
+    <t>LOINC#73965-6</t>
+  </si>
+  <si>
+    <t>LOINC#101685-6</t>
   </si>
   <si>
     <t>body-metrics-observation</t>
@@ -170,10 +209,10 @@
     <t>Calorie Intake Observation Profile</t>
   </si>
   <si>
-    <t>Observation Category Codes#nutrition</t>
-  </si>
-  <si>
-    <t>LOINC#9051-4</t>
+    <t>Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#caloric-intake</t>
   </si>
   <si>
     <t>environmental-observation</t>
@@ -182,19 +221,16 @@
     <t>Environmental Observation Profile</t>
   </si>
   <si>
-    <t>Observation Category Codes#environment</t>
-  </si>
-  <si>
     <t>fertility-observation</t>
   </si>
   <si>
     <t>Fertility Observation Profile</t>
   </si>
   <si>
-    <t>Observation Category Codes#reproductive</t>
-  </si>
-  <si>
-    <t>LOINC#8669-4</t>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#ovulation-status</t>
   </si>
   <si>
     <t>heart-rate-observation</t>
@@ -206,9 +242,6 @@
     <t>LOINC#8867-4</t>
   </si>
   <si>
-    <t>LOINC#80404-7</t>
-  </si>
-  <si>
     <t>height-observation</t>
   </si>
   <si>
@@ -224,7 +257,7 @@
     <t>Lifestyle Medicine Vital Signs Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1 (extensible)</t>
   </si>
   <si>
     <t>macronutrients-observation</t>
@@ -233,16 +266,16 @@
     <t>Macronutrients Observation Profile</t>
   </si>
   <si>
-    <t>LOINC#LP199119-9</t>
-  </si>
-  <si>
-    <t>LOINC#LP35925-4</t>
-  </si>
-  <si>
-    <t>LOINC#LP35921-3</t>
-  </si>
-  <si>
-    <t>LOINC#LP35922-1</t>
+    <t>Lifestyle Medicine Observation Codes#macronutrients-panel</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#carbohydrate-intake</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#protein-intake</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#fat-intake</t>
   </si>
   <si>
     <t>mindfulness-observation</t>
@@ -251,10 +284,10 @@
     <t>Mindfulness Session Observation</t>
   </si>
   <si>
-    <t>SNOMED CT#711020003</t>
-  </si>
-  <si>
-    <t>SNOMED CT#118682006</t>
+    <t>SNOMED CT#285854004</t>
+  </si>
+  <si>
+    <t>SNOMED CT#704323007</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -266,13 +299,13 @@
     <t>integer</t>
   </si>
   <si>
-    <t>SNOMED CT#373931001</t>
+    <t>SNOMED CT#106131003</t>
   </si>
   <si>
     <t>CodeableConcept</t>
   </si>
   <si>
-    <t>SNOMED CT#276241001</t>
+    <t>SNOMED CT#363894002</t>
   </si>
   <si>
     <t>string</t>
@@ -284,211 +317,175 @@
     <t>Mobility Profile</t>
   </si>
   <si>
-    <t>Observation Category Codes#activity</t>
-  </si>
-  <si>
     <t>LOINC#LA32-8</t>
   </si>
   <si>
-    <t>LOINC#LA32-9</t>
+    <t>Lifestyle Medicine Observation Codes#balance-assessment</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#gait-assessment</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#movement-assessment</t>
+  </si>
+  <si>
+    <t>noise-exposure-observation</t>
+  </si>
+  <si>
+    <t>Noise Exposure Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#28573-7</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#noise-avg</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#noise-duration</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#noise-peak</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#noise-background</t>
+  </si>
+  <si>
+    <t>nutrition-intake-observation</t>
+  </si>
+  <si>
+    <t>Nutrition Intake Observation Profile</t>
+  </si>
+  <si>
+    <t>oxygen-saturation-observation</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#2708-6</t>
+  </si>
+  <si>
+    <t>physical-activity-observation</t>
+  </si>
+  <si>
+    <t>Physical Activity Observation Profile</t>
+  </si>
+  <si>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/physical-activity-type-vs (required)</t>
+  </si>
+  <si>
+    <t>LOINC#55423-8</t>
+  </si>
+  <si>
+    <t>LOINC#55430-3</t>
+  </si>
+  <si>
+    <t>LOINC#55411-3</t>
+  </si>
+  <si>
+    <t>LOINC#55424-6</t>
+  </si>
+  <si>
+    <t>social-history-observation</t>
+  </si>
+  <si>
+    <t>Reproductive Health Base Profile</t>
+  </si>
+  <si>
+    <t>LOINC#72514-3</t>
+  </si>
+  <si>
+    <t>LOINC#3144-3</t>
+  </si>
+  <si>
+    <t>LOINC#92656-8</t>
+  </si>
+  <si>
+    <t>LOINC#64699-2</t>
+  </si>
+  <si>
+    <t>social-interaction</t>
+  </si>
+  <si>
+    <t>Social Interaction Profile</t>
+  </si>
+  <si>
+    <t>LOINC#76506-5</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#social-duration</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#social-quality</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#social-medium</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#social-count</t>
+  </si>
+  <si>
+    <t>stress-level</t>
+  </si>
+  <si>
+    <t>Stress Level Profile</t>
+  </si>
+  <si>
+    <t>LOINC#64394-0</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#stress-physiological</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#stress-psychological</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#stress-chronicity</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#stress-impact</t>
+  </si>
+  <si>
+    <t>uv-exposure-observation</t>
+  </si>
+  <si>
+    <t>UV Exposure Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#28574-5</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#uv-index</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#uv-duration</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#exposure-time</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#uv-intensity</t>
+  </si>
+  <si>
+    <t>walking-speed-observation</t>
+  </si>
+  <si>
+    <t>Walking Speed Observation Profile</t>
   </si>
   <si>
     <t>LOINC#LA29042-4</t>
   </si>
   <si>
-    <t>LOINC#LA29043-2</t>
-  </si>
-  <si>
-    <t>noise-exposure-observation</t>
-  </si>
-  <si>
-    <t>Noise Exposure Observation Profile</t>
-  </si>
-  <si>
-    <t>LOINC#28573-7</t>
-  </si>
-  <si>
-    <t>LOINC#89020-2</t>
-  </si>
-  <si>
-    <t>LOINC#89021-0</t>
-  </si>
-  <si>
-    <t>LOINC#89024-4</t>
-  </si>
-  <si>
-    <t>LOINC#89025-1</t>
-  </si>
-  <si>
-    <t>nutrition-intake-observation</t>
-  </si>
-  <si>
-    <t>Nutrition Intake Observation Profile</t>
-  </si>
-  <si>
-    <t>oxygen-saturation-observation</t>
-  </si>
-  <si>
-    <t>Oxygen Saturation Observation Profile</t>
-  </si>
-  <si>
-    <t>LOINC#2708-6</t>
-  </si>
-  <si>
-    <t>physical-activity-observation</t>
-  </si>
-  <si>
-    <t>Physical Activity Observation Profile</t>
-  </si>
-  <si>
-    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/physical-activity-type-vs (required)</t>
-  </si>
-  <si>
-    <t>LOINC#55423-8</t>
-  </si>
-  <si>
-    <t>LOINC#55430-3</t>
-  </si>
-  <si>
-    <t>LOINC#55411-3</t>
-  </si>
-  <si>
-    <t>LOINC#55424-6</t>
-  </si>
-  <si>
-    <t>reproductive-observation</t>
-  </si>
-  <si>
-    <t>Reproductive Health Base Profile</t>
-  </si>
-  <si>
-    <t>LOINC#72514-3</t>
-  </si>
-  <si>
-    <t>LOINC#103332-8</t>
-  </si>
-  <si>
-    <t>LOINC#103334-4</t>
-  </si>
-  <si>
-    <t>LOINC#103335-1</t>
-  </si>
-  <si>
-    <t>sleep-observation</t>
-  </si>
-  <si>
-    <t>Sleep Observation Profile</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#sleep</t>
-  </si>
-  <si>
-    <t>LOINC#93832-4</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>LOINC#93831-6</t>
-  </si>
-  <si>
-    <t>LOINC#93833-2</t>
-  </si>
-  <si>
-    <t>LOINC#93834-0</t>
-  </si>
-  <si>
-    <t>LOINC#93835-7</t>
-  </si>
-  <si>
-    <t>LOINC#93836-5</t>
-  </si>
-  <si>
-    <t>LOINC#9279-1</t>
-  </si>
-  <si>
-    <t>LOINC#93837-3</t>
-  </si>
-  <si>
-    <t>social-interaction</t>
-  </si>
-  <si>
-    <t>Social Interaction Profile</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history</t>
-  </si>
-  <si>
-    <t>LOINC#96766-1</t>
-  </si>
-  <si>
-    <t>LOINC#89597-9</t>
-  </si>
-  <si>
-    <t>LOINC#89598-7</t>
-  </si>
-  <si>
-    <t>LOINC#89599-5</t>
-  </si>
-  <si>
-    <t>LOINC#89600-1</t>
-  </si>
-  <si>
-    <t>stress-level</t>
-  </si>
-  <si>
-    <t>Stress Level Profile</t>
-  </si>
-  <si>
-    <t>LOINC#89592-0</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>LOINC#89593-8</t>
-  </si>
-  <si>
-    <t>LOINC#89594-6</t>
-  </si>
-  <si>
-    <t>LOINC#89595-3</t>
-  </si>
-  <si>
-    <t>LOINC#89596-1</t>
-  </si>
-  <si>
-    <t>uv-exposure-observation</t>
-  </si>
-  <si>
-    <t>UV Exposure Observation Profile</t>
-  </si>
-  <si>
-    <t>LOINC#28574-5</t>
-  </si>
-  <si>
-    <t>LOINC#89022-8</t>
-  </si>
-  <si>
-    <t>LOINC#89023-6</t>
-  </si>
-  <si>
-    <t>LOINC#89026-9</t>
-  </si>
-  <si>
-    <t>LOINC#89027-7</t>
-  </si>
-  <si>
-    <t>walking-speed-observation</t>
-  </si>
-  <si>
-    <t>Walking Speed Observation Profile</t>
-  </si>
-  <si>
     <t>walking-steadiness-observation</t>
   </si>
   <si>
     <t>Walking Steadiness Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#balance-score</t>
   </si>
   <si>
     <t>water-intake-observation</t>
@@ -695,10 +692,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -998,25 +995,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>17</v>
@@ -1036,7 +1033,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>14</v>
@@ -1045,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>14</v>
@@ -1071,7 +1068,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>14</v>
@@ -1080,7 +1077,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -1103,28 +1100,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -1141,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>14</v>
@@ -1159,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -1176,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -1194,7 +1191,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -1208,25 +1205,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>17</v>
@@ -1243,25 +1240,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>17</v>
@@ -1281,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>14</v>
@@ -1290,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1316,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1325,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1351,16 +1348,16 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1386,7 +1383,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1395,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>14</v>
@@ -1418,28 +1415,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1453,28 +1450,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F24" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1488,28 +1485,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1523,25 +1520,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>17</v>
@@ -1558,25 +1555,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>17</v>
@@ -1596,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>14</v>
@@ -1605,7 +1602,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
@@ -1631,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>14</v>
@@ -1640,7 +1637,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>14</v>
@@ -1666,16 +1663,16 @@
         <v>14</v>
       </c>
       <c r="B30" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
@@ -1698,28 +1695,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1736,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>14</v>
@@ -1745,7 +1742,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
@@ -1754,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1768,13 +1765,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>62</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
@@ -1783,13 +1780,13 @@
         <v>14</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1803,28 +1800,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -1838,28 +1835,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1873,25 +1870,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>17</v>
@@ -1908,13 +1905,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
@@ -1923,13 +1920,13 @@
         <v>14</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -1943,25 +1940,25 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>17</v>
@@ -1981,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -1990,7 +1987,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -2013,13 +2010,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
@@ -2031,10 +2028,10 @@
         <v>14</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -2051,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -2060,7 +2057,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -2069,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -2083,10 +2080,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>14</v>
@@ -2095,16 +2092,16 @@
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -2121,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -2130,7 +2127,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
@@ -2139,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -2156,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -2165,7 +2162,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>14</v>
@@ -2174,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -2188,28 +2185,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2223,28 +2220,28 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2258,28 +2255,28 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>18</v>
@@ -2293,25 +2290,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>17</v>
@@ -2331,7 +2328,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2340,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
@@ -2366,7 +2363,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2375,7 +2372,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
@@ -2398,7 +2395,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>89</v>
@@ -2410,16 +2407,16 @@
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2445,7 +2442,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2454,7 +2451,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2468,28 +2465,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2506,25 +2503,25 @@
         <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2541,7 +2538,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>14</v>
@@ -2550,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>14</v>
@@ -2559,7 +2556,7 @@
         <v>14</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2576,25 +2573,25 @@
         <v>14</v>
       </c>
       <c r="B56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2608,25 +2605,25 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>17</v>
@@ -2643,25 +2640,25 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>17</v>
@@ -2678,28 +2675,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2713,28 +2710,28 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>18</v>
@@ -2751,7 +2748,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>14</v>
@@ -2760,7 +2757,7 @@
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>14</v>
@@ -2783,25 +2780,25 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>17</v>
@@ -2821,16 +2818,16 @@
         <v>14</v>
       </c>
       <c r="B63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>14</v>
@@ -2856,7 +2853,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>14</v>
@@ -2865,7 +2862,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
@@ -2888,28 +2885,28 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -2926,7 +2923,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>14</v>
@@ -2935,7 +2932,7 @@
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
@@ -2944,7 +2941,7 @@
         <v>14</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -2958,28 +2955,28 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>18</v>
@@ -2993,28 +2990,28 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>18</v>
@@ -3028,28 +3025,28 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="F69" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G69" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -3063,25 +3060,25 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="B70" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D70" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>17</v>
@@ -3101,16 +3098,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>14</v>
@@ -3136,7 +3133,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>14</v>
@@ -3145,7 +3142,7 @@
         <v>14</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>14</v>
@@ -3171,7 +3168,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>14</v>
@@ -3180,7 +3177,7 @@
         <v>14</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>14</v>
@@ -3203,28 +3200,28 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>18</v>
@@ -3241,7 +3238,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>14</v>
@@ -3250,7 +3247,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>14</v>
@@ -3259,7 +3256,7 @@
         <v>14</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>18</v>
@@ -3276,7 +3273,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>14</v>
@@ -3285,7 +3282,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>14</v>
@@ -3294,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>18</v>
@@ -3311,7 +3308,7 @@
         <v>14</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>14</v>
@@ -3320,7 +3317,7 @@
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>14</v>
@@ -3329,7 +3326,7 @@
         <v>14</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>18</v>
@@ -3346,7 +3343,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>14</v>
@@ -3355,7 +3352,7 @@
         <v>14</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>14</v>
@@ -3364,7 +3361,7 @@
         <v>14</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>18</v>
@@ -3378,28 +3375,28 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="B79" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D79" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E79" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="F79" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>18</v>
@@ -3416,16 +3413,16 @@
         <v>14</v>
       </c>
       <c r="B80" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D80" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>14</v>
@@ -3451,7 +3448,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>14</v>
@@ -3460,7 +3457,7 @@
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>14</v>
@@ -3486,7 +3483,7 @@
         <v>14</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>14</v>
@@ -3495,7 +3492,7 @@
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>14</v>
@@ -3521,7 +3518,7 @@
         <v>14</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>14</v>
@@ -3530,7 +3527,7 @@
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>14</v>
@@ -3553,28 +3550,28 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E84" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>18</v>
@@ -3591,16 +3588,16 @@
         <v>14</v>
       </c>
       <c r="B85" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D85" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E85" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>14</v>
@@ -3626,7 +3623,7 @@
         <v>14</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>14</v>
@@ -3635,7 +3632,7 @@
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>14</v>
@@ -3661,7 +3658,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>14</v>
@@ -3670,7 +3667,7 @@
         <v>14</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>14</v>
@@ -3696,7 +3693,7 @@
         <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>14</v>
@@ -3705,7 +3702,7 @@
         <v>14</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
@@ -3728,25 +3725,25 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>17</v>
@@ -3766,7 +3763,7 @@
         <v>14</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>14</v>
@@ -3775,7 +3772,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>14</v>
@@ -3801,16 +3798,16 @@
         <v>14</v>
       </c>
       <c r="B91" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D91" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E91" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>14</v>
@@ -3836,7 +3833,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>14</v>
@@ -3845,7 +3842,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
@@ -3854,7 +3851,7 @@
         <v>14</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>18</v>
@@ -3871,7 +3868,7 @@
         <v>14</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>14</v>
@@ -3880,7 +3877,7 @@
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>14</v>
@@ -3903,25 +3900,25 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>17</v>
@@ -3941,7 +3938,7 @@
         <v>14</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>14</v>
@@ -3950,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>14</v>
@@ -3976,7 +3973,7 @@
         <v>14</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>14</v>
@@ -3985,7 +3982,7 @@
         <v>14</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>14</v>
@@ -4011,7 +4008,7 @@
         <v>14</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>14</v>
@@ -4020,7 +4017,7 @@
         <v>14</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>14</v>
@@ -4046,7 +4043,7 @@
         <v>14</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>14</v>
@@ -4055,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>14</v>
@@ -4081,7 +4078,7 @@
         <v>14</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>14</v>
@@ -4090,7 +4087,7 @@
         <v>14</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>14</v>
@@ -4116,7 +4113,7 @@
         <v>14</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>14</v>
@@ -4125,7 +4122,7 @@
         <v>14</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>14</v>
@@ -4148,25 +4145,25 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B101" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D101" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E101" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="F101" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>17</v>
@@ -4186,7 +4183,7 @@
         <v>14</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>14</v>
@@ -4195,7 +4192,7 @@
         <v>14</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>14</v>
@@ -4221,7 +4218,7 @@
         <v>14</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>14</v>
@@ -4230,7 +4227,7 @@
         <v>14</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>14</v>
@@ -4256,7 +4253,7 @@
         <v>14</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>14</v>
@@ -4265,7 +4262,7 @@
         <v>14</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>14</v>
@@ -4291,7 +4288,7 @@
         <v>14</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>14</v>
@@ -4300,7 +4297,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>14</v>
@@ -4326,7 +4323,7 @@
         <v>14</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>14</v>
@@ -4335,7 +4332,7 @@
         <v>14</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>14</v>
@@ -4361,7 +4358,7 @@
         <v>14</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>14</v>
@@ -4370,7 +4367,7 @@
         <v>14</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>14</v>
@@ -4393,25 +4390,25 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="C108" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D108" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E108" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="F108" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>17</v>
@@ -4428,25 +4425,25 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="C109" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D109" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E109" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="F109" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>17</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="168">
   <si>
     <t>Profile</t>
   </si>
@@ -242,6 +242,15 @@
     <t>LOINC#8867-4</t>
   </si>
   <si>
+    <t>LOINC#40443-4</t>
+  </si>
+  <si>
+    <t>LOINC#55425-3</t>
+  </si>
+  <si>
+    <t>LOINC#69999-9</t>
+  </si>
+  <si>
     <t>height-observation</t>
   </si>
   <si>
@@ -284,7 +293,7 @@
     <t>Mindfulness Session Observation</t>
   </si>
   <si>
-    <t>SNOMED CT#285854004</t>
+    <t>Lifestyle Medicine Observation Codes#mindfulness-session</t>
   </si>
   <si>
     <t>SNOMED CT#704323007</t>
@@ -293,7 +302,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>SNOMED CT#725854004</t>
+    <t>SNOMED CT#365949003</t>
   </si>
   <si>
     <t>integer</t>
@@ -305,12 +314,15 @@
     <t>CodeableConcept</t>
   </si>
   <si>
-    <t>SNOMED CT#363894002</t>
+    <t>Lifestyle Medicine Observation Codes#relaxation-response</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>Lifestyle Medicine Observation Codes#mindfulness-type</t>
+  </si>
+  <si>
     <t>mobility-profile</t>
   </si>
   <si>
@@ -335,15 +347,12 @@
     <t>Noise Exposure Observation Profile</t>
   </si>
   <si>
-    <t>LOINC#28573-7</t>
+    <t>Lifestyle Medicine Observation Codes#noise-duration</t>
   </si>
   <si>
     <t>Lifestyle Medicine Observation Codes#noise-avg</t>
   </si>
   <si>
-    <t>Lifestyle Medicine Observation Codes#noise-duration</t>
-  </si>
-  <si>
     <t>Lifestyle Medicine Observation Codes#noise-peak</t>
   </si>
   <si>
@@ -455,15 +464,12 @@
     <t>UV Exposure Observation Profile</t>
   </si>
   <si>
-    <t>LOINC#28574-5</t>
+    <t>Lifestyle Medicine Observation Codes#uv-duration</t>
   </si>
   <si>
     <t>Lifestyle Medicine Observation Codes#uv-index</t>
   </si>
   <si>
-    <t>Lifestyle Medicine Observation Codes#uv-duration</t>
-  </si>
-  <si>
     <t>Lifestyle Medicine Observation Codes#exposure-time</t>
   </si>
   <si>
@@ -476,7 +482,10 @@
     <t>Walking Speed Observation Profile</t>
   </si>
   <si>
-    <t>LOINC#LA29042-4</t>
+    <t>LOINC#8686-8</t>
+  </si>
+  <si>
+    <t>LOINC#41950-7</t>
   </si>
   <si>
     <t>walking-steadiness-observation</t>
@@ -485,7 +494,10 @@
     <t>Walking Steadiness Observation Profile</t>
   </si>
   <si>
-    <t>LOINC#balance-score</t>
+    <t>LOINC#89236-3</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#balance-status</t>
   </si>
   <si>
     <t>water-intake-observation</t>
@@ -494,7 +506,7 @@
     <t>Water Intake Observation Profile</t>
   </si>
   <si>
-    <t>LOINC#77111-4</t>
+    <t>Lifestyle Medicine Observation Codes#water-intake</t>
   </si>
   <si>
     <t>weight-observation</t>
@@ -2057,7 +2069,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -2092,7 +2104,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
@@ -2127,7 +2139,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
@@ -2185,10 +2197,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>29</v>
@@ -2197,7 +2209,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
@@ -2220,10 +2232,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>29</v>
@@ -2235,7 +2247,7 @@
         <v>14</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>46</v>
@@ -2255,10 +2267,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>65</v>
@@ -2267,7 +2279,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
@@ -2293,7 +2305,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -2302,7 +2314,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
@@ -2328,7 +2340,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2337,7 +2349,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
@@ -2363,7 +2375,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2372,7 +2384,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
@@ -2395,10 +2407,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>14</v>
@@ -2407,7 +2419,7 @@
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
@@ -2433,7 +2445,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2442,7 +2454,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2451,7 +2463,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2468,7 +2480,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2477,7 +2489,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
@@ -2486,7 +2498,7 @@
         <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2503,7 +2515,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>14</v>
@@ -2512,7 +2524,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>14</v>
@@ -2521,7 +2533,7 @@
         <v>14</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2538,7 +2550,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>14</v>
@@ -2547,7 +2559,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>14</v>
@@ -2556,7 +2568,7 @@
         <v>14</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2573,7 +2585,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>14</v>
@@ -2582,7 +2594,7 @@
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>14</v>
@@ -2591,7 +2603,7 @@
         <v>14</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2605,10 +2617,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>13</v>
@@ -2643,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>14</v>
@@ -2652,7 +2664,7 @@
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
@@ -2678,7 +2690,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>14</v>
@@ -2687,7 +2699,7 @@
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
@@ -2713,7 +2725,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>14</v>
@@ -2722,7 +2734,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
@@ -2748,7 +2760,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>14</v>
@@ -2757,7 +2769,7 @@
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>14</v>
@@ -2780,10 +2792,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>65</v>
@@ -2792,7 +2804,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
@@ -2818,7 +2830,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>14</v>
@@ -2827,7 +2839,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>14</v>
@@ -2853,7 +2865,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>14</v>
@@ -2862,7 +2874,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
@@ -2888,7 +2900,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>14</v>
@@ -2897,7 +2909,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>14</v>
@@ -2923,7 +2935,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>14</v>
@@ -2932,7 +2944,7 @@
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
@@ -2955,10 +2967,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>65</v>
@@ -2990,10 +3002,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>29</v>
@@ -3002,7 +3014,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>14</v>
@@ -3025,10 +3037,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>13</v>
@@ -3040,13 +3052,13 @@
         <v>14</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>31</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -3063,7 +3075,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>14</v>
@@ -3072,7 +3084,7 @@
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
@@ -3098,7 +3110,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>14</v>
@@ -3107,7 +3119,7 @@
         <v>14</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>14</v>
@@ -3133,7 +3145,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>14</v>
@@ -3142,7 +3154,7 @@
         <v>14</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>14</v>
@@ -3168,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>14</v>
@@ -3177,7 +3189,7 @@
         <v>14</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>14</v>
@@ -3200,10 +3212,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>71</v>
@@ -3238,7 +3250,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>14</v>
@@ -3247,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>14</v>
@@ -3256,7 +3268,7 @@
         <v>14</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>18</v>
@@ -3273,7 +3285,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>14</v>
@@ -3282,7 +3294,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>14</v>
@@ -3291,7 +3303,7 @@
         <v>14</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>18</v>
@@ -3308,7 +3320,7 @@
         <v>14</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>14</v>
@@ -3317,7 +3329,7 @@
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>14</v>
@@ -3326,7 +3338,7 @@
         <v>14</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>18</v>
@@ -3343,7 +3355,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>14</v>
@@ -3352,7 +3364,7 @@
         <v>14</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>14</v>
@@ -3361,7 +3373,7 @@
         <v>14</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>18</v>
@@ -3375,10 +3387,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>71</v>
@@ -3387,7 +3399,7 @@
         <v>14</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>14</v>
@@ -3396,7 +3408,7 @@
         <v>31</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>18</v>
@@ -3413,7 +3425,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>14</v>
@@ -3422,7 +3434,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>14</v>
@@ -3448,7 +3460,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>14</v>
@@ -3457,7 +3469,7 @@
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>14</v>
@@ -3483,7 +3495,7 @@
         <v>14</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>14</v>
@@ -3492,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>14</v>
@@ -3518,7 +3530,7 @@
         <v>14</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>14</v>
@@ -3527,7 +3539,7 @@
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>14</v>
@@ -3550,10 +3562,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>29</v>
@@ -3562,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>14</v>
@@ -3571,7 +3583,7 @@
         <v>31</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>18</v>
@@ -3588,7 +3600,7 @@
         <v>14</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>14</v>
@@ -3597,7 +3609,7 @@
         <v>14</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>14</v>
@@ -3623,7 +3635,7 @@
         <v>14</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>14</v>
@@ -3632,7 +3644,7 @@
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>14</v>
@@ -3658,7 +3670,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>14</v>
@@ -3667,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>14</v>
@@ -3693,7 +3705,7 @@
         <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>14</v>
@@ -3702,7 +3714,7 @@
         <v>14</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
@@ -3725,10 +3737,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>65</v>
@@ -3737,7 +3749,7 @@
         <v>14</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>14</v>
@@ -3763,7 +3775,7 @@
         <v>14</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>14</v>
@@ -3772,7 +3784,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>14</v>
@@ -3798,7 +3810,7 @@
         <v>14</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>14</v>
@@ -3807,7 +3819,7 @@
         <v>14</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>14</v>
@@ -3833,7 +3845,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>14</v>
@@ -3842,7 +3854,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
@@ -3868,7 +3880,7 @@
         <v>14</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>14</v>
@@ -3877,7 +3889,7 @@
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>14</v>
@@ -3900,10 +3912,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>13</v>
@@ -3912,7 +3924,7 @@
         <v>14</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>14</v>
@@ -3938,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>14</v>
@@ -3947,7 +3959,7 @@
         <v>14</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>14</v>
@@ -3973,7 +3985,7 @@
         <v>14</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>14</v>
@@ -3982,7 +3994,7 @@
         <v>14</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>14</v>
@@ -4008,7 +4020,7 @@
         <v>14</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>14</v>
@@ -4017,7 +4029,7 @@
         <v>14</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>14</v>
@@ -4043,7 +4055,7 @@
         <v>14</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>14</v>
@@ -4052,7 +4064,7 @@
         <v>14</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>14</v>
@@ -4078,7 +4090,7 @@
         <v>14</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>14</v>
@@ -4087,7 +4099,7 @@
         <v>14</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>14</v>
@@ -4113,7 +4125,7 @@
         <v>14</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>14</v>
@@ -4122,7 +4134,7 @@
         <v>14</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>14</v>
@@ -4145,10 +4157,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>13</v>
@@ -4157,7 +4169,7 @@
         <v>14</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>14</v>
@@ -4183,7 +4195,7 @@
         <v>14</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>14</v>
@@ -4192,7 +4204,7 @@
         <v>14</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>14</v>
@@ -4218,7 +4230,7 @@
         <v>14</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>14</v>
@@ -4227,7 +4239,7 @@
         <v>14</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>14</v>
@@ -4253,7 +4265,7 @@
         <v>14</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>14</v>
@@ -4262,7 +4274,7 @@
         <v>14</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>14</v>
@@ -4288,7 +4300,7 @@
         <v>14</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>14</v>
@@ -4297,7 +4309,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>14</v>
@@ -4323,7 +4335,7 @@
         <v>14</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>14</v>
@@ -4332,7 +4344,7 @@
         <v>14</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>14</v>
@@ -4358,7 +4370,7 @@
         <v>14</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>14</v>
@@ -4367,7 +4379,7 @@
         <v>14</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>14</v>
@@ -4390,10 +4402,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>65</v>
@@ -4402,7 +4414,7 @@
         <v>14</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>14</v>
@@ -4425,10 +4437,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>29</v>
@@ -4437,7 +4449,7 @@
         <v>14</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>14</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -482,10 +482,10 @@
     <t>Walking Speed Observation Profile</t>
   </si>
   <si>
-    <t>LOINC#8686-8</t>
-  </si>
-  <si>
-    <t>LOINC#41950-7</t>
+    <t>Lifestyle Medicine Observation Codes#walking-speed</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#walking-distance</t>
   </si>
   <si>
     <t>walking-steadiness-observation</t>
@@ -494,7 +494,7 @@
     <t>Walking Steadiness Observation Profile</t>
   </si>
   <si>
-    <t>LOINC#89236-3</t>
+    <t>Lifestyle Medicine Observation Codes#walking-steadiness</t>
   </si>
   <si>
     <t>Lifestyle Medicine Observation Codes#balance-status</t>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="167">
   <si>
     <t>Profile</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>LOINC#55425-3</t>
-  </si>
-  <si>
-    <t>LOINC#69999-9</t>
   </si>
   <si>
     <t>height-observation</t>
@@ -2139,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
@@ -2197,10 +2194,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>29</v>
@@ -2209,7 +2206,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
@@ -2232,10 +2229,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>29</v>
@@ -2247,7 +2244,7 @@
         <v>14</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>46</v>
@@ -2267,10 +2264,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>65</v>
@@ -2279,7 +2276,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
@@ -2305,7 +2302,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -2314,7 +2311,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
@@ -2340,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2349,7 +2346,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
@@ -2375,7 +2372,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2384,7 +2381,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
@@ -2407,19 +2404,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="C51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
@@ -2445,7 +2442,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2454,16 +2451,16 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2480,7 +2477,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2489,16 +2486,16 @@
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2515,7 +2512,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>14</v>
@@ -2524,16 +2521,16 @@
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2550,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>14</v>
@@ -2559,16 +2556,16 @@
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2585,7 +2582,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>14</v>
@@ -2594,7 +2591,7 @@
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>14</v>
@@ -2603,7 +2600,7 @@
         <v>14</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2617,10 +2614,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>13</v>
@@ -2655,16 +2652,16 @@
         <v>14</v>
       </c>
       <c r="B58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
@@ -2690,7 +2687,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>14</v>
@@ -2699,7 +2696,7 @@
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
@@ -2725,7 +2722,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>14</v>
@@ -2734,7 +2731,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
@@ -2760,7 +2757,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>14</v>
@@ -2769,7 +2766,7 @@
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>14</v>
@@ -2792,10 +2789,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>65</v>
@@ -2804,7 +2801,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
@@ -2830,7 +2827,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>14</v>
@@ -2839,7 +2836,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>14</v>
@@ -2865,16 +2862,16 @@
         <v>14</v>
       </c>
       <c r="B64" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
@@ -2900,7 +2897,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>14</v>
@@ -2909,7 +2906,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>14</v>
@@ -2935,7 +2932,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>14</v>
@@ -2944,7 +2941,7 @@
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
@@ -2967,10 +2964,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>65</v>
@@ -3002,10 +2999,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>29</v>
@@ -3014,7 +3011,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>14</v>
@@ -3037,10 +3034,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>13</v>
@@ -3052,13 +3049,13 @@
         <v>14</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>31</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -3075,7 +3072,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>14</v>
@@ -3084,7 +3081,7 @@
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
@@ -3110,7 +3107,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>14</v>
@@ -3119,7 +3116,7 @@
         <v>14</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>14</v>
@@ -3145,7 +3142,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>14</v>
@@ -3154,7 +3151,7 @@
         <v>14</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>14</v>
@@ -3180,7 +3177,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>14</v>
@@ -3189,7 +3186,7 @@
         <v>14</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>14</v>
@@ -3212,10 +3209,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>71</v>
@@ -3250,17 +3247,17 @@
         <v>14</v>
       </c>
       <c r="B75" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="F75" t="s" s="2">
         <v>14</v>
       </c>
@@ -3268,7 +3265,7 @@
         <v>14</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>18</v>
@@ -3285,7 +3282,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>14</v>
@@ -3294,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>14</v>
@@ -3303,7 +3300,7 @@
         <v>14</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>18</v>
@@ -3320,7 +3317,7 @@
         <v>14</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>14</v>
@@ -3329,7 +3326,7 @@
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>14</v>
@@ -3338,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>18</v>
@@ -3355,7 +3352,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>14</v>
@@ -3364,7 +3361,7 @@
         <v>14</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>14</v>
@@ -3373,7 +3370,7 @@
         <v>14</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>18</v>
@@ -3387,10 +3384,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>71</v>
@@ -3399,7 +3396,7 @@
         <v>14</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>14</v>
@@ -3408,7 +3405,7 @@
         <v>31</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>18</v>
@@ -3425,7 +3422,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>14</v>
@@ -3434,7 +3431,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>14</v>
@@ -3460,7 +3457,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>14</v>
@@ -3469,7 +3466,7 @@
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>14</v>
@@ -3495,7 +3492,7 @@
         <v>14</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>14</v>
@@ -3504,7 +3501,7 @@
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>14</v>
@@ -3530,7 +3527,7 @@
         <v>14</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>14</v>
@@ -3539,7 +3536,7 @@
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>14</v>
@@ -3562,10 +3559,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>29</v>
@@ -3574,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>14</v>
@@ -3583,7 +3580,7 @@
         <v>31</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>18</v>
@@ -3600,7 +3597,7 @@
         <v>14</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>14</v>
@@ -3609,7 +3606,7 @@
         <v>14</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>14</v>
@@ -3635,7 +3632,7 @@
         <v>14</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>14</v>
@@ -3644,7 +3641,7 @@
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>14</v>
@@ -3670,7 +3667,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>14</v>
@@ -3679,7 +3676,7 @@
         <v>14</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>14</v>
@@ -3705,7 +3702,7 @@
         <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>14</v>
@@ -3714,7 +3711,7 @@
         <v>14</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
@@ -3737,10 +3734,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>65</v>
@@ -3749,7 +3746,7 @@
         <v>14</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>14</v>
@@ -3775,7 +3772,7 @@
         <v>14</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>14</v>
@@ -3784,7 +3781,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>14</v>
@@ -3810,16 +3807,16 @@
         <v>14</v>
       </c>
       <c r="B91" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D91" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E91" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>14</v>
@@ -3845,7 +3842,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>14</v>
@@ -3854,7 +3851,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
@@ -3880,7 +3877,7 @@
         <v>14</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>14</v>
@@ -3889,7 +3886,7 @@
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>14</v>
@@ -3912,10 +3909,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>13</v>
@@ -3924,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>14</v>
@@ -3950,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>14</v>
@@ -3959,7 +3956,7 @@
         <v>14</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>14</v>
@@ -3985,7 +3982,7 @@
         <v>14</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>14</v>
@@ -3994,7 +3991,7 @@
         <v>14</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>14</v>
@@ -4020,7 +4017,7 @@
         <v>14</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>14</v>
@@ -4029,7 +4026,7 @@
         <v>14</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>14</v>
@@ -4055,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>14</v>
@@ -4064,7 +4061,7 @@
         <v>14</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>14</v>
@@ -4090,16 +4087,16 @@
         <v>14</v>
       </c>
       <c r="B99" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E99" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>14</v>
@@ -4125,7 +4122,7 @@
         <v>14</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>14</v>
@@ -4134,7 +4131,7 @@
         <v>14</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>14</v>
@@ -4157,10 +4154,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>13</v>
@@ -4169,7 +4166,7 @@
         <v>14</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>14</v>
@@ -4195,7 +4192,7 @@
         <v>14</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>14</v>
@@ -4204,7 +4201,7 @@
         <v>14</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>14</v>
@@ -4230,7 +4227,7 @@
         <v>14</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>14</v>
@@ -4239,7 +4236,7 @@
         <v>14</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>14</v>
@@ -4265,7 +4262,7 @@
         <v>14</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>14</v>
@@ -4274,7 +4271,7 @@
         <v>14</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>14</v>
@@ -4300,7 +4297,7 @@
         <v>14</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>14</v>
@@ -4309,7 +4306,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>14</v>
@@ -4335,16 +4332,16 @@
         <v>14</v>
       </c>
       <c r="B106" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D106" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E106" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>14</v>
@@ -4370,7 +4367,7 @@
         <v>14</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>14</v>
@@ -4379,7 +4376,7 @@
         <v>14</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>14</v>
@@ -4402,10 +4399,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>65</v>
@@ -4414,7 +4411,7 @@
         <v>14</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>14</v>
@@ -4437,10 +4434,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>29</v>
@@ -4449,7 +4446,7 @@
         <v>14</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>14</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="170">
   <si>
     <t>Profile</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>Lifestyle Medicine Observation Codes#ovulation-status</t>
+  </si>
+  <si>
+    <t>SNOMED CT#289567002</t>
+  </si>
+  <si>
+    <t>SNOMED CT#252366009</t>
+  </si>
+  <si>
+    <t>SNOMED CT#87527008</t>
   </si>
   <si>
     <t>heart-rate-observation</t>
@@ -1926,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
@@ -1961,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
@@ -1996,7 +2005,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -2019,10 +2028,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>29</v>
@@ -2031,7 +2040,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
@@ -2057,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -2066,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -2092,7 +2101,7 @@
         <v>14</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>14</v>
@@ -2101,7 +2110,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
@@ -2127,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -2136,7 +2145,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
@@ -2162,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -2194,10 +2203,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>29</v>
@@ -2206,7 +2215,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
@@ -2229,10 +2238,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>29</v>
@@ -2244,7 +2253,7 @@
         <v>14</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>46</v>
@@ -2264,10 +2273,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>65</v>
@@ -2276,7 +2285,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
@@ -2302,7 +2311,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -2311,7 +2320,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
@@ -2337,7 +2346,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2346,7 +2355,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
@@ -2372,7 +2381,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2381,7 +2390,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
@@ -2404,10 +2413,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>14</v>
@@ -2416,7 +2425,7 @@
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
@@ -2442,7 +2451,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2451,7 +2460,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2460,7 +2469,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2477,7 +2486,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2486,7 +2495,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
@@ -2495,7 +2504,7 @@
         <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2512,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>14</v>
@@ -2521,7 +2530,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>14</v>
@@ -2530,7 +2539,7 @@
         <v>14</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2547,7 +2556,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>14</v>
@@ -2556,7 +2565,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>14</v>
@@ -2565,7 +2574,7 @@
         <v>14</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2582,7 +2591,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>14</v>
@@ -2591,16 +2600,16 @@
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2614,10 +2623,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>13</v>
@@ -2652,7 +2661,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>14</v>
@@ -2661,7 +2670,7 @@
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
@@ -2687,7 +2696,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>14</v>
@@ -2696,7 +2705,7 @@
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
@@ -2722,7 +2731,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>14</v>
@@ -2731,7 +2740,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
@@ -2757,7 +2766,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>14</v>
@@ -2766,7 +2775,7 @@
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>14</v>
@@ -2789,10 +2798,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>65</v>
@@ -2801,7 +2810,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
@@ -2827,7 +2836,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>14</v>
@@ -2836,7 +2845,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>14</v>
@@ -2862,7 +2871,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>14</v>
@@ -2871,7 +2880,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
@@ -2897,7 +2906,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>14</v>
@@ -2906,7 +2915,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>14</v>
@@ -2932,7 +2941,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>14</v>
@@ -2941,7 +2950,7 @@
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
@@ -2964,10 +2973,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>65</v>
@@ -2999,10 +3008,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>29</v>
@@ -3011,7 +3020,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>14</v>
@@ -3034,10 +3043,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>13</v>
@@ -3049,13 +3058,13 @@
         <v>14</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>31</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -3072,7 +3081,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>14</v>
@@ -3081,7 +3090,7 @@
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
@@ -3107,7 +3116,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>14</v>
@@ -3116,7 +3125,7 @@
         <v>14</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>14</v>
@@ -3142,7 +3151,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>14</v>
@@ -3151,7 +3160,7 @@
         <v>14</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>14</v>
@@ -3177,7 +3186,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>14</v>
@@ -3186,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>14</v>
@@ -3209,10 +3218,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>71</v>
@@ -3247,7 +3256,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>14</v>
@@ -3256,7 +3265,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>14</v>
@@ -3265,7 +3274,7 @@
         <v>14</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>18</v>
@@ -3282,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>14</v>
@@ -3291,7 +3300,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>14</v>
@@ -3300,7 +3309,7 @@
         <v>14</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>18</v>
@@ -3317,7 +3326,7 @@
         <v>14</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>14</v>
@@ -3326,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>14</v>
@@ -3335,7 +3344,7 @@
         <v>14</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>18</v>
@@ -3352,7 +3361,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>14</v>
@@ -3361,7 +3370,7 @@
         <v>14</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>14</v>
@@ -3370,7 +3379,7 @@
         <v>14</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>18</v>
@@ -3384,10 +3393,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>71</v>
@@ -3396,7 +3405,7 @@
         <v>14</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>14</v>
@@ -3405,7 +3414,7 @@
         <v>31</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>18</v>
@@ -3422,7 +3431,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>14</v>
@@ -3431,7 +3440,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>14</v>
@@ -3457,7 +3466,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>14</v>
@@ -3466,7 +3475,7 @@
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>14</v>
@@ -3492,7 +3501,7 @@
         <v>14</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>14</v>
@@ -3501,7 +3510,7 @@
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>14</v>
@@ -3527,7 +3536,7 @@
         <v>14</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>14</v>
@@ -3536,7 +3545,7 @@
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>14</v>
@@ -3559,10 +3568,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>29</v>
@@ -3571,7 +3580,7 @@
         <v>14</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>14</v>
@@ -3580,7 +3589,7 @@
         <v>31</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>18</v>
@@ -3597,7 +3606,7 @@
         <v>14</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>14</v>
@@ -3606,7 +3615,7 @@
         <v>14</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>14</v>
@@ -3632,7 +3641,7 @@
         <v>14</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>14</v>
@@ -3641,7 +3650,7 @@
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>14</v>
@@ -3667,7 +3676,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>14</v>
@@ -3676,7 +3685,7 @@
         <v>14</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>14</v>
@@ -3702,7 +3711,7 @@
         <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>14</v>
@@ -3711,7 +3720,7 @@
         <v>14</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
@@ -3734,10 +3743,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>65</v>
@@ -3746,7 +3755,7 @@
         <v>14</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>14</v>
@@ -3772,7 +3781,7 @@
         <v>14</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>14</v>
@@ -3781,7 +3790,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>14</v>
@@ -3807,7 +3816,7 @@
         <v>14</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>14</v>
@@ -3816,7 +3825,7 @@
         <v>14</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>14</v>
@@ -3842,7 +3851,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>14</v>
@@ -3851,7 +3860,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
@@ -3877,7 +3886,7 @@
         <v>14</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>14</v>
@@ -3886,7 +3895,7 @@
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>14</v>
@@ -3909,10 +3918,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>13</v>
@@ -3921,7 +3930,7 @@
         <v>14</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>14</v>
@@ -3947,7 +3956,7 @@
         <v>14</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>14</v>
@@ -3956,7 +3965,7 @@
         <v>14</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>14</v>
@@ -3982,7 +3991,7 @@
         <v>14</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>14</v>
@@ -3991,7 +4000,7 @@
         <v>14</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>14</v>
@@ -4017,7 +4026,7 @@
         <v>14</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>14</v>
@@ -4026,7 +4035,7 @@
         <v>14</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>14</v>
@@ -4052,7 +4061,7 @@
         <v>14</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>14</v>
@@ -4061,7 +4070,7 @@
         <v>14</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>14</v>
@@ -4087,7 +4096,7 @@
         <v>14</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>14</v>
@@ -4096,7 +4105,7 @@
         <v>14</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>14</v>
@@ -4122,7 +4131,7 @@
         <v>14</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>14</v>
@@ -4131,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>14</v>
@@ -4154,10 +4163,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>13</v>
@@ -4166,7 +4175,7 @@
         <v>14</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>14</v>
@@ -4192,7 +4201,7 @@
         <v>14</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>14</v>
@@ -4201,7 +4210,7 @@
         <v>14</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>14</v>
@@ -4227,7 +4236,7 @@
         <v>14</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>14</v>
@@ -4236,7 +4245,7 @@
         <v>14</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>14</v>
@@ -4262,7 +4271,7 @@
         <v>14</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>14</v>
@@ -4271,7 +4280,7 @@
         <v>14</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>14</v>
@@ -4297,7 +4306,7 @@
         <v>14</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>14</v>
@@ -4306,7 +4315,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>14</v>
@@ -4332,7 +4341,7 @@
         <v>14</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>14</v>
@@ -4341,7 +4350,7 @@
         <v>14</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>14</v>
@@ -4367,7 +4376,7 @@
         <v>14</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>14</v>
@@ -4376,7 +4385,7 @@
         <v>14</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>14</v>
@@ -4399,10 +4408,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>65</v>
@@ -4411,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>14</v>
@@ -4434,10 +4443,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>29</v>
@@ -4446,7 +4455,7 @@
         <v>14</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>14</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="221">
   <si>
     <t>Profile</t>
   </si>
@@ -143,6 +143,45 @@
     <t>Lifestyle Medicine Observation Codes#allostatic-load</t>
   </si>
   <si>
+    <t>alcohol-use-observation</t>
+  </si>
+  <si>
+    <t>Alcohol Use Observation Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>LOINC#11331-6</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>LOINC#74013-4</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#68519-8</t>
+  </si>
+  <si>
+    <t>LOINC#68518-0</t>
+  </si>
+  <si>
+    <t>LOINC#68520-6</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#alcohol-type</t>
+  </si>
+  <si>
+    <t>LOINC#75626-2</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
     <t>blood-pressure-observation</t>
   </si>
   <si>
@@ -203,6 +242,21 @@
     <t>Body Metrics Observation Profile</t>
   </si>
   <si>
+    <t>caffeine-intake-observation</t>
+  </si>
+  <si>
+    <t>Caffeine Intake Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#80489-8</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#caffeine-source</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#last-caffeine-time</t>
+  </si>
+  <si>
     <t>calorie-intake-observation</t>
   </si>
   <si>
@@ -215,6 +269,18 @@
     <t>Lifestyle Medicine Observation Codes#caloric-intake</t>
   </si>
   <si>
+    <t>crp-observation</t>
+  </si>
+  <si>
+    <t>C-Reactive Protein (CRP) Observation Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>LOINC#1988-5</t>
+  </si>
+  <si>
     <t>environmental-observation</t>
   </si>
   <si>
@@ -227,19 +293,16 @@
     <t>Fertility Observation Profile</t>
   </si>
   <si>
-    <t>Observation Category Codes#social-history</t>
-  </si>
-  <si>
     <t>Lifestyle Medicine Observation Codes#ovulation-status</t>
   </si>
   <si>
-    <t>SNOMED CT#289567002</t>
-  </si>
-  <si>
-    <t>SNOMED CT#252366009</t>
-  </si>
-  <si>
-    <t>SNOMED CT#87527008</t>
+    <t>LOINC#10570-0</t>
+  </si>
+  <si>
+    <t>LOINC#11976-8</t>
+  </si>
+  <si>
+    <t>LOINC#82810-3</t>
   </si>
   <si>
     <t>heart-rate-observation</t>
@@ -266,6 +329,39 @@
     <t>LOINC#8302-2</t>
   </si>
   <si>
+    <t>hrv-inflammation-correlation</t>
+  </si>
+  <si>
+    <t>HRV-Inflammation Correlation Observation Profile</t>
+  </si>
+  <si>
+    <t>null#hrv-inflammation-correlation</t>
+  </si>
+  <si>
+    <t>hscrp-observation</t>
+  </si>
+  <si>
+    <t>High-Sensitivity C-Reactive Protein (hs-CRP) Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#30522-7</t>
+  </si>
+  <si>
+    <t>il6-observation</t>
+  </si>
+  <si>
+    <t>Interleukin-6 (IL-6) Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#26881-3</t>
+  </si>
+  <si>
+    <t>inflammatory-marker-observation</t>
+  </si>
+  <si>
+    <t>Inflammatory Marker Observation Profile</t>
+  </si>
+  <si>
     <t>lifestyle-vital-signs</t>
   </si>
   <si>
@@ -305,21 +401,12 @@
     <t>SNOMED CT#704323007</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>SNOMED CT#365949003</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>SNOMED CT#106131003</t>
   </si>
   <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
     <t>Lifestyle Medicine Observation Codes#relaxation-response</t>
   </si>
   <si>
@@ -401,6 +488,24 @@
     <t>LOINC#55424-6</t>
   </si>
   <si>
+    <t>recreational-substance-use-observation</t>
+  </si>
+  <si>
+    <t>Recreational Substance Use Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#68524-8</t>
+  </si>
+  <si>
+    <t>LOINC#74204-9</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#substance-frequency</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#last-use-date</t>
+  </si>
+  <si>
     <t>social-history-observation</t>
   </si>
   <si>
@@ -462,6 +567,54 @@
   </si>
   <si>
     <t>Lifestyle Medicine Observation Codes#stress-impact</t>
+  </si>
+  <si>
+    <t>substance-use-summary</t>
+  </si>
+  <si>
+    <t>Substance Use Summary Profile</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#substance-use-summary</t>
+  </si>
+  <si>
+    <t>LOINC#72166-2</t>
+  </si>
+  <si>
+    <t>Lifestyle Medicine Observation Codes#substance-risk-level</t>
+  </si>
+  <si>
+    <t>tnf-alpha-observation</t>
+  </si>
+  <si>
+    <t>Tumor Necrosis Factor Alpha (TNF-α) Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#3074-2</t>
+  </si>
+  <si>
+    <t>tobacco-use-observation</t>
+  </si>
+  <si>
+    <t>Tobacco Use Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#8664-5</t>
+  </si>
+  <si>
+    <t>LOINC#74010-0</t>
+  </si>
+  <si>
+    <t>LOINC#64218-1</t>
+  </si>
+  <si>
+    <t>LOINC#81228-9</t>
+  </si>
+  <si>
+    <t>LOINC#88029-4</t>
+  </si>
+  <si>
+    <t>LOINC#63610-0</t>
   </si>
   <si>
     <t>uv-exposure-observation</t>
@@ -655,7 +808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1439,19 +1592,19 @@
         <v>44</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>47</v>
@@ -1489,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1515,16 +1668,16 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1538,28 +1691,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1573,28 +1726,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1611,7 +1764,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>14</v>
@@ -1620,7 +1773,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
@@ -1629,7 +1782,7 @@
         <v>14</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1646,17 +1799,17 @@
         <v>14</v>
       </c>
       <c r="B29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="F29" t="s" s="2">
         <v>14</v>
       </c>
@@ -1664,7 +1817,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1678,13 +1831,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
@@ -1696,10 +1849,10 @@
         <v>14</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1716,7 +1869,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>14</v>
@@ -1725,7 +1878,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
@@ -1734,7 +1887,7 @@
         <v>14</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1751,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>14</v>
@@ -1760,16 +1913,16 @@
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1783,10 +1936,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>29</v>
@@ -1795,10 +1948,10 @@
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>31</v>
@@ -1818,19 +1971,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
@@ -1853,25 +2006,25 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="B35" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="C35" t="s" s="2">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>17</v>
@@ -1888,25 +2041,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>17</v>
@@ -1926,7 +2079,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>14</v>
@@ -1935,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
@@ -1961,7 +2114,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>14</v>
@@ -1970,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
@@ -1996,7 +2149,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -2005,7 +2158,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -2028,10 +2181,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>29</v>
@@ -2040,16 +2193,16 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -2063,28 +2216,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -2110,7 +2263,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
@@ -2145,7 +2298,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
@@ -2154,7 +2307,7 @@
         <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -2168,28 +2321,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -2203,19 +2356,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
@@ -2224,7 +2377,7 @@
         <v>31</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2238,13 +2391,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2253,13 +2406,13 @@
         <v>14</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2273,19 +2426,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
@@ -2311,7 +2464,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -2320,7 +2473,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
@@ -2346,7 +2499,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2355,7 +2508,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
@@ -2381,7 +2534,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2390,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
@@ -2413,28 +2566,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2451,7 +2604,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2460,7 +2613,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2469,7 +2622,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2486,7 +2639,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2495,7 +2648,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
@@ -2504,7 +2657,7 @@
         <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2521,7 +2674,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>14</v>
@@ -2530,7 +2683,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>14</v>
@@ -2539,7 +2692,7 @@
         <v>14</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2556,7 +2709,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>14</v>
@@ -2565,7 +2718,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>14</v>
@@ -2574,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2588,13 +2741,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2606,10 +2759,10 @@
         <v>14</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2629,13 +2782,13 @@
         <v>106</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>30</v>
@@ -2658,28 +2811,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2693,28 +2846,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2728,28 +2881,28 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>18</v>
@@ -2763,28 +2916,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -2798,19 +2951,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
@@ -2836,7 +2989,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>14</v>
@@ -2845,7 +2998,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>14</v>
@@ -2871,7 +3024,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>14</v>
@@ -2880,7 +3033,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
@@ -2906,7 +3059,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>14</v>
@@ -2915,7 +3068,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>14</v>
@@ -2938,10 +3091,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>14</v>
@@ -2950,16 +3103,16 @@
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -2973,28 +3126,28 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>18</v>
@@ -3008,28 +3161,28 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>18</v>
@@ -3043,28 +3196,28 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -3081,7 +3234,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>14</v>
@@ -3090,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
@@ -3099,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>18</v>
@@ -3116,7 +3269,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>14</v>
@@ -3125,7 +3278,7 @@
         <v>14</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>14</v>
@@ -3134,7 +3287,7 @@
         <v>14</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>18</v>
@@ -3148,25 +3301,25 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>17</v>
@@ -3186,7 +3339,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>14</v>
@@ -3195,7 +3348,7 @@
         <v>14</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>14</v>
@@ -3218,28 +3371,28 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>18</v>
@@ -3256,7 +3409,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>14</v>
@@ -3265,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>14</v>
@@ -3274,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>18</v>
@@ -3291,7 +3444,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>14</v>
@@ -3300,7 +3453,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>14</v>
@@ -3309,7 +3462,7 @@
         <v>14</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>18</v>
@@ -3323,28 +3476,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>18</v>
@@ -3361,7 +3514,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>14</v>
@@ -3370,7 +3523,7 @@
         <v>14</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>14</v>
@@ -3379,7 +3532,7 @@
         <v>14</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>18</v>
@@ -3393,28 +3546,28 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>18</v>
@@ -3431,7 +3584,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>14</v>
@@ -3440,7 +3593,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>14</v>
@@ -3466,7 +3619,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>14</v>
@@ -3475,7 +3628,7 @@
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>14</v>
@@ -3498,25 +3651,25 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>17</v>
@@ -3533,28 +3686,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>18</v>
@@ -3568,28 +3721,28 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>31</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>18</v>
@@ -3606,7 +3759,7 @@
         <v>14</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>14</v>
@@ -3615,7 +3768,7 @@
         <v>14</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>14</v>
@@ -3641,7 +3794,7 @@
         <v>14</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>14</v>
@@ -3650,7 +3803,7 @@
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>14</v>
@@ -3676,7 +3829,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>14</v>
@@ -3685,7 +3838,7 @@
         <v>14</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>14</v>
@@ -3711,7 +3864,7 @@
         <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>14</v>
@@ -3720,7 +3873,7 @@
         <v>14</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
@@ -3743,19 +3896,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>14</v>
@@ -3764,7 +3917,7 @@
         <v>31</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>18</v>
@@ -3781,7 +3934,7 @@
         <v>14</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>14</v>
@@ -3790,7 +3943,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>14</v>
@@ -3799,7 +3952,7 @@
         <v>14</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>18</v>
@@ -3816,7 +3969,7 @@
         <v>14</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>14</v>
@@ -3825,7 +3978,7 @@
         <v>14</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>14</v>
@@ -3834,7 +3987,7 @@
         <v>14</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>18</v>
@@ -3851,7 +4004,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>14</v>
@@ -3860,7 +4013,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
@@ -3883,28 +4036,28 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>18</v>
@@ -3918,28 +4071,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>18</v>
@@ -3956,7 +4109,7 @@
         <v>14</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>14</v>
@@ -3965,7 +4118,7 @@
         <v>14</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>14</v>
@@ -3974,7 +4127,7 @@
         <v>14</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>18</v>
@@ -3991,7 +4144,7 @@
         <v>14</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>14</v>
@@ -4000,7 +4153,7 @@
         <v>14</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>14</v>
@@ -4009,7 +4162,7 @@
         <v>14</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>18</v>
@@ -4026,7 +4179,7 @@
         <v>14</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>14</v>
@@ -4035,7 +4188,7 @@
         <v>14</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>14</v>
@@ -4044,7 +4197,7 @@
         <v>14</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>18</v>
@@ -4058,28 +4211,28 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>18</v>
@@ -4096,7 +4249,7 @@
         <v>14</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>14</v>
@@ -4105,7 +4258,7 @@
         <v>14</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>14</v>
@@ -4131,7 +4284,7 @@
         <v>14</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>14</v>
@@ -4140,7 +4293,7 @@
         <v>14</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>14</v>
@@ -4163,25 +4316,25 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>17</v>
@@ -4201,7 +4354,7 @@
         <v>14</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>14</v>
@@ -4210,7 +4363,7 @@
         <v>14</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>14</v>
@@ -4233,28 +4386,28 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>18</v>
@@ -4271,7 +4424,7 @@
         <v>14</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>14</v>
@@ -4280,7 +4433,7 @@
         <v>14</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>14</v>
@@ -4306,7 +4459,7 @@
         <v>14</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>14</v>
@@ -4315,7 +4468,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>14</v>
@@ -4341,7 +4494,7 @@
         <v>14</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>14</v>
@@ -4350,7 +4503,7 @@
         <v>14</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>14</v>
@@ -4376,7 +4529,7 @@
         <v>14</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>14</v>
@@ -4385,7 +4538,7 @@
         <v>14</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>14</v>
@@ -4408,19 +4561,19 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>14</v>
@@ -4443,36 +4596,1156 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D140" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C141" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="D109" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E109" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s" s="2">
+      <c r="D141" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="H109" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K109" t="s" s="2">
+      <c r="H141" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K141" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="383">
   <si>
     <t>Profile</t>
   </si>
@@ -269,6 +269,78 @@
     <t>Lifestyle Medicine Observation Codes#caloric-intake</t>
   </si>
   <si>
+    <t>cgm-observation</t>
+  </si>
+  <si>
+    <t>Continuous Glucose Monitoring (CGM) Observation Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#exam</t>
+  </si>
+  <si>
+    <t>LOINC#41653-7</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#trend</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#roc</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#tir</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#tbr</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#tbr-l2</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#tar</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#tar-l2</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#mean</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#sd</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#cv</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#gmi</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#hypo-events</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#hyper-events</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#active-time</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#range-low</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#range-high</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#system</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#site</t>
+  </si>
+  <si>
+    <t>CGM Metrics CodeSystem#sensor-days</t>
+  </si>
+  <si>
     <t>crp-observation</t>
   </si>
   <si>
@@ -281,6 +353,66 @@
     <t>LOINC#1988-5</t>
   </si>
   <si>
+    <t>cycling-dynamics-observation</t>
+  </si>
+  <si>
+    <t>Cycling Dynamics Observation Profile</t>
+  </si>
+  <si>
+    <t>SNOMED CT#52087000</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#instant-power</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#avg-power</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#np</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#max-power</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#ftp</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#tss</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#if</t>
+  </si>
+  <si>
+    <t>LOINC#103211-4</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#avg-cadence</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#lr-balance</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#kj</t>
+  </si>
+  <si>
+    <t>LOINC#55411-3</t>
+  </si>
+  <si>
+    <t>LOINC#55430-3</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#avg-speed</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#elevation</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#zone</t>
+  </si>
+  <si>
+    <t>Cycling Metrics CodeSystem#type</t>
+  </si>
+  <si>
     <t>environmental-observation</t>
   </si>
   <si>
@@ -479,15 +611,81 @@
     <t>LOINC#55423-8</t>
   </si>
   <si>
-    <t>LOINC#55430-3</t>
-  </si>
-  <si>
-    <t>LOINC#55411-3</t>
-  </si>
-  <si>
     <t>LOINC#55424-6</t>
   </si>
   <si>
+    <t>recovery-readiness-observation</t>
+  </si>
+  <si>
+    <t>Recovery Readiness Observation Profile</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#readiness</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#category</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#vs-baseline</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#trend</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#oura</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#whoop</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#garmin-bb</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#fitbit</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#sleep-contrib</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#hrv-contrib</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#rhr-contrib</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#activity-bal</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#prev-strain</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#strain-7d</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#debt</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#training-status</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#rec-activity</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#optimal-strain</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#avg-7d</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#avg-30d</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#baseline</t>
+  </si>
+  <si>
+    <t>Recovery Metrics CodeSystem#vendor</t>
+  </si>
+  <si>
     <t>recreational-substance-use-observation</t>
   </si>
   <si>
@@ -506,6 +704,69 @@
     <t>Lifestyle Medicine Observation Codes#last-use-date</t>
   </si>
   <si>
+    <t>running-dynamics-observation</t>
+  </si>
+  <si>
+    <t>Running Dynamics Observation Profile</t>
+  </si>
+  <si>
+    <t>SNOMED CT#52226006</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#gct</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#gcb</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#vo</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#vr</t>
+  </si>
+  <si>
+    <t>LOINC#103204-9</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#stride</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#power</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#form-power</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#fpr</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#stiffness</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#impact</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#footstrike</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#pace</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#speed</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#elevation</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#symmetry</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#form-score</t>
+  </si>
+  <si>
+    <t>Running Metrics CodeSystem#injury-risk</t>
+  </si>
+  <si>
     <t>social-history-observation</t>
   </si>
   <si>
@@ -545,6 +806,99 @@
     <t>Lifestyle Medicine Observation Codes#social-count</t>
   </si>
   <si>
+    <t>strength-training-observation</t>
+  </si>
+  <si>
+    <t>Strength Training Observation Profile</t>
+  </si>
+  <si>
+    <t>SNOMED CT#266940006</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#exercise-name</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#category</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#muscle</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#equipment</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#set-num</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#set-type</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#reps</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#target-reps</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#load</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#pct-1rm</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#rir</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#set-rpe</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#rest</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#mean-vel</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#peak-vel</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#vel-loss</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#mean-power</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#peak-power</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#rom</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#tut</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#total-sets</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#total-reps</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#volume-load</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#tested-1rm</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#est-1rm</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#session-rpe</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#session-load</t>
+  </si>
+  <si>
+    <t>Strength Training CodeSystem#training-type</t>
+  </si>
+  <si>
     <t>stress-level</t>
   </si>
   <si>
@@ -554,9 +908,6 @@
     <t>LOINC#64394-0</t>
   </si>
   <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
     <t>Lifestyle Medicine Observation Codes#stress-physiological</t>
   </si>
   <si>
@@ -584,6 +935,72 @@
     <t>Lifestyle Medicine Observation Codes#substance-risk-level</t>
   </si>
   <si>
+    <t>swimming-metrics-observation</t>
+  </si>
+  <si>
+    <t>Swimming Metrics Observation Profile</t>
+  </si>
+  <si>
+    <t>SNOMED CT#20461001</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#distance</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#laps</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#strokes</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#active-time</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#rest-time</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#stroke-type</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#strokes-per-lap</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#stroke-rate</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#dps</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#avg-swolf</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#best-swolf</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#avg-pace</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#best-pace</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#speed</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#pool-length</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#environment</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#max-hr</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#aerobic-te</t>
+  </si>
+  <si>
+    <t>Swimming Metrics CodeSystem#anaerobic-te</t>
+  </si>
+  <si>
     <t>tnf-alpha-observation</t>
   </si>
   <si>
@@ -633,6 +1050,75 @@
   </si>
   <si>
     <t>Lifestyle Medicine Observation Codes#uv-intensity</t>
+  </si>
+  <si>
+    <t>vo2max-estimation-observation</t>
+  </si>
+  <si>
+    <t>VO2max Estimation Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#60842-2</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#ci-lower</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#ci-upper</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#accuracy</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#crf</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#percentile</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#fitness-age</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#standard</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#method</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#protocol</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#validation</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#rhr-used</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#hrmax-used</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#hrmax-method</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#trend</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#change</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#pct-change</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#baseline</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#cv-risk</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#mets</t>
+  </si>
+  <si>
+    <t>VO2max Metrics CodeSystem#source</t>
   </si>
   <si>
     <t>walking-speed-observation</t>
@@ -808,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K296"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2374,10 +2860,10 @@
         <v>14</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2391,28 +2877,28 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F46" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2426,28 +2912,28 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>18</v>
@@ -2464,17 +2950,17 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
       </c>
@@ -2482,7 +2968,7 @@
         <v>14</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2499,7 +2985,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2508,7 +2994,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
@@ -2517,7 +3003,7 @@
         <v>14</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>18</v>
@@ -2534,7 +3020,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2543,7 +3029,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
@@ -2552,7 +3038,7 @@
         <v>14</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>18</v>
@@ -2566,28 +3052,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2604,7 +3090,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2613,7 +3099,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2622,7 +3108,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2639,7 +3125,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2648,7 +3134,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
@@ -2657,7 +3143,7 @@
         <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2674,17 +3160,17 @@
         <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="F54" t="s" s="2">
         <v>14</v>
       </c>
@@ -2692,7 +3178,7 @@
         <v>14</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2709,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>14</v>
@@ -2718,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>14</v>
@@ -2727,7 +3213,7 @@
         <v>14</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2741,28 +3227,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2776,10 +3262,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>14</v>
@@ -2788,16 +3274,16 @@
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2811,28 +3297,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2846,28 +3332,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2881,28 +3367,28 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>18</v>
@@ -2916,28 +3402,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -2951,28 +3437,28 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>18</v>
@@ -2989,7 +3475,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>14</v>
@@ -2998,7 +3484,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>14</v>
@@ -3007,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -3024,7 +3510,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>14</v>
@@ -3033,7 +3519,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
@@ -3042,7 +3528,7 @@
         <v>14</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -3056,28 +3542,28 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -3091,28 +3577,28 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -3129,7 +3615,7 @@
         <v>14</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>14</v>
@@ -3138,7 +3624,7 @@
         <v>14</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>14</v>
@@ -3164,7 +3650,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>14</v>
@@ -3173,7 +3659,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>14</v>
@@ -3182,7 +3668,7 @@
         <v>14</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>18</v>
@@ -3199,7 +3685,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>14</v>
@@ -3208,7 +3694,7 @@
         <v>14</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>14</v>
@@ -3217,7 +3703,7 @@
         <v>14</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -3234,7 +3720,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>14</v>
@@ -3243,7 +3729,7 @@
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
@@ -3252,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>18</v>
@@ -3269,7 +3755,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>14</v>
@@ -3278,7 +3764,7 @@
         <v>14</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>14</v>
@@ -3287,7 +3773,7 @@
         <v>14</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>18</v>
@@ -3301,28 +3787,28 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>18</v>
@@ -3339,7 +3825,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>14</v>
@@ -3348,7 +3834,7 @@
         <v>14</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>14</v>
@@ -3357,7 +3843,7 @@
         <v>14</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>18</v>
@@ -3374,7 +3860,7 @@
         <v>14</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>14</v>
@@ -3383,7 +3869,7 @@
         <v>14</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>14</v>
@@ -3392,7 +3878,7 @@
         <v>14</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>18</v>
@@ -3409,7 +3895,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>14</v>
@@ -3418,7 +3904,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>14</v>
@@ -3427,7 +3913,7 @@
         <v>14</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>18</v>
@@ -3444,7 +3930,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>14</v>
@@ -3453,7 +3939,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>14</v>
@@ -3462,7 +3948,7 @@
         <v>14</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>18</v>
@@ -3476,28 +3962,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>18</v>
@@ -3514,7 +4000,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>14</v>
@@ -3523,7 +4009,7 @@
         <v>14</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>14</v>
@@ -3532,7 +4018,7 @@
         <v>14</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>18</v>
@@ -3549,7 +4035,7 @@
         <v>14</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>14</v>
@@ -3558,7 +4044,7 @@
         <v>14</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>14</v>
@@ -3567,7 +4053,7 @@
         <v>14</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>18</v>
@@ -3584,7 +4070,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>14</v>
@@ -3593,7 +4079,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>14</v>
@@ -3602,7 +4088,7 @@
         <v>14</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>18</v>
@@ -3619,7 +4105,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>14</v>
@@ -3628,7 +4114,7 @@
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>14</v>
@@ -3637,7 +4123,7 @@
         <v>14</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>18</v>
@@ -3651,28 +4137,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>18</v>
@@ -3686,28 +4172,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>18</v>
@@ -3721,13 +4207,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
@@ -3736,13 +4222,13 @@
         <v>14</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>31</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>18</v>
@@ -3756,25 +4242,25 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>17</v>
@@ -3794,7 +4280,7 @@
         <v>14</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>14</v>
@@ -3803,7 +4289,7 @@
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>14</v>
@@ -3829,7 +4315,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>14</v>
@@ -3838,7 +4324,7 @@
         <v>14</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>14</v>
@@ -3864,7 +4350,7 @@
         <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>14</v>
@@ -3873,7 +4359,7 @@
         <v>14</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
@@ -3896,28 +4382,28 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>18</v>
@@ -3934,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>14</v>
@@ -3943,7 +4429,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>14</v>
@@ -3952,7 +4438,7 @@
         <v>14</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>18</v>
@@ -3969,7 +4455,7 @@
         <v>14</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>14</v>
@@ -3978,7 +4464,7 @@
         <v>14</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>14</v>
@@ -3987,7 +4473,7 @@
         <v>14</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>18</v>
@@ -4004,7 +4490,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>14</v>
@@ -4013,7 +4499,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
@@ -4022,7 +4508,7 @@
         <v>14</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>18</v>
@@ -4036,25 +4522,25 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>60</v>
@@ -4071,28 +4557,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>18</v>
@@ -4106,10 +4592,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>14</v>
@@ -4118,16 +4604,16 @@
         <v>14</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>18</v>
@@ -4141,28 +4627,28 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>18</v>
@@ -4176,28 +4662,28 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>18</v>
@@ -4211,28 +4697,28 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>31</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>18</v>
@@ -4246,28 +4732,28 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>18</v>
@@ -4281,25 +4767,25 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>17</v>
@@ -4319,7 +4805,7 @@
         <v>14</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>14</v>
@@ -4328,7 +4814,7 @@
         <v>14</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>14</v>
@@ -4354,7 +4840,7 @@
         <v>14</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>14</v>
@@ -4363,7 +4849,7 @@
         <v>14</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>14</v>
@@ -4386,28 +4872,28 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>18</v>
@@ -4421,10 +4907,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>14</v>
@@ -4433,16 +4919,16 @@
         <v>14</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>18</v>
@@ -4459,7 +4945,7 @@
         <v>14</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>14</v>
@@ -4468,7 +4954,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>14</v>
@@ -4477,7 +4963,7 @@
         <v>14</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>18</v>
@@ -4494,7 +4980,7 @@
         <v>14</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>14</v>
@@ -4503,7 +4989,7 @@
         <v>14</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>14</v>
@@ -4512,7 +4998,7 @@
         <v>14</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>18</v>
@@ -4529,7 +5015,7 @@
         <v>14</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>14</v>
@@ -4538,7 +5024,7 @@
         <v>14</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>14</v>
@@ -4547,7 +5033,7 @@
         <v>14</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>18</v>
@@ -4561,28 +5047,28 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>18</v>
@@ -4599,7 +5085,7 @@
         <v>14</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>14</v>
@@ -4608,7 +5094,7 @@
         <v>14</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>14</v>
@@ -4631,28 +5117,28 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>18</v>
@@ -4669,7 +5155,7 @@
         <v>14</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>14</v>
@@ -4678,7 +5164,7 @@
         <v>14</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>14</v>
@@ -4687,7 +5173,7 @@
         <v>14</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>18</v>
@@ -4704,7 +5190,7 @@
         <v>14</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>14</v>
@@ -4713,7 +5199,7 @@
         <v>14</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>14</v>
@@ -4722,7 +5208,7 @@
         <v>14</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>18</v>
@@ -4736,28 +5222,28 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>18</v>
@@ -4771,28 +5257,28 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>18</v>
@@ -4806,28 +5292,28 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>18</v>
@@ -4844,7 +5330,7 @@
         <v>14</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>14</v>
@@ -4853,7 +5339,7 @@
         <v>14</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>14</v>
@@ -4862,7 +5348,7 @@
         <v>14</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>18</v>
@@ -4879,7 +5365,7 @@
         <v>14</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>14</v>
@@ -4888,7 +5374,7 @@
         <v>14</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>14</v>
@@ -4897,7 +5383,7 @@
         <v>14</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>18</v>
@@ -4914,7 +5400,7 @@
         <v>14</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>14</v>
@@ -4923,7 +5409,7 @@
         <v>14</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>14</v>
@@ -4932,7 +5418,7 @@
         <v>14</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>18</v>
@@ -4949,7 +5435,7 @@
         <v>14</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>14</v>
@@ -4958,7 +5444,7 @@
         <v>14</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>14</v>
@@ -4967,7 +5453,7 @@
         <v>14</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>18</v>
@@ -4981,28 +5467,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E120" t="s" s="2">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>18</v>
@@ -5016,28 +5502,28 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E121" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>18</v>
@@ -5051,28 +5537,28 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E122" t="s" s="2">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>18</v>
@@ -5089,7 +5575,7 @@
         <v>14</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>14</v>
@@ -5098,7 +5584,7 @@
         <v>14</v>
       </c>
       <c r="E123" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>14</v>
@@ -5124,7 +5610,7 @@
         <v>14</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>14</v>
@@ -5133,7 +5619,7 @@
         <v>14</v>
       </c>
       <c r="E124" t="s" s="2">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F124" t="s" s="2">
         <v>14</v>
@@ -5142,7 +5628,7 @@
         <v>14</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>18</v>
@@ -5159,7 +5645,7 @@
         <v>14</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>14</v>
@@ -5168,7 +5654,7 @@
         <v>14</v>
       </c>
       <c r="E125" t="s" s="2">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="F125" t="s" s="2">
         <v>14</v>
@@ -5191,25 +5677,25 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E126" t="s" s="2">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>17</v>
@@ -5226,28 +5712,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D127" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E127" t="s" s="2">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="F127" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>18</v>
@@ -5264,7 +5750,7 @@
         <v>14</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>14</v>
@@ -5273,7 +5759,7 @@
         <v>14</v>
       </c>
       <c r="E128" t="s" s="2">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="F128" t="s" s="2">
         <v>14</v>
@@ -5282,7 +5768,7 @@
         <v>14</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>18</v>
@@ -5299,7 +5785,7 @@
         <v>14</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C129" t="s" s="2">
         <v>14</v>
@@ -5308,7 +5794,7 @@
         <v>14</v>
       </c>
       <c r="E129" t="s" s="2">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>14</v>
@@ -5317,7 +5803,7 @@
         <v>14</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>18</v>
@@ -5334,7 +5820,7 @@
         <v>14</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>14</v>
@@ -5343,7 +5829,7 @@
         <v>14</v>
       </c>
       <c r="E130" t="s" s="2">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>14</v>
@@ -5352,7 +5838,7 @@
         <v>14</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>18</v>
@@ -5369,7 +5855,7 @@
         <v>14</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>14</v>
@@ -5378,7 +5864,7 @@
         <v>14</v>
       </c>
       <c r="E131" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>14</v>
@@ -5387,7 +5873,7 @@
         <v>14</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>18</v>
@@ -5404,7 +5890,7 @@
         <v>14</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C132" t="s" s="2">
         <v>14</v>
@@ -5413,7 +5899,7 @@
         <v>14</v>
       </c>
       <c r="E132" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F132" t="s" s="2">
         <v>14</v>
@@ -5422,7 +5908,7 @@
         <v>14</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>18</v>
@@ -5436,28 +5922,28 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E133" t="s" s="2">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>18</v>
@@ -5474,7 +5960,7 @@
         <v>14</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C134" t="s" s="2">
         <v>14</v>
@@ -5483,7 +5969,7 @@
         <v>14</v>
       </c>
       <c r="E134" t="s" s="2">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="F134" t="s" s="2">
         <v>14</v>
@@ -5492,7 +5978,7 @@
         <v>14</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>18</v>
@@ -5509,7 +5995,7 @@
         <v>14</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>14</v>
@@ -5518,7 +6004,7 @@
         <v>14</v>
       </c>
       <c r="E135" t="s" s="2">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="F135" t="s" s="2">
         <v>14</v>
@@ -5527,7 +6013,7 @@
         <v>14</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>18</v>
@@ -5544,7 +6030,7 @@
         <v>14</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>14</v>
@@ -5553,7 +6039,7 @@
         <v>14</v>
       </c>
       <c r="E136" t="s" s="2">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>14</v>
@@ -5562,7 +6048,7 @@
         <v>14</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>18</v>
@@ -5579,17 +6065,17 @@
         <v>14</v>
       </c>
       <c r="B137" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E137" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="F137" t="s" s="2">
         <v>14</v>
       </c>
@@ -5597,7 +6083,7 @@
         <v>14</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I137" t="s" s="2">
         <v>18</v>
@@ -5614,7 +6100,7 @@
         <v>14</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>14</v>
@@ -5632,7 +6118,7 @@
         <v>14</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>18</v>
@@ -5649,7 +6135,7 @@
         <v>14</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>14</v>
@@ -5667,7 +6153,7 @@
         <v>14</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>18</v>
@@ -5681,28 +6167,28 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="B140" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C140" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="D140" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E140" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="F140" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>18</v>
@@ -5716,36 +6202,5461 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="F143" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D144" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="F144" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D145" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D149" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D152" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C156" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="F156" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E157" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E158" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="F158" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="F159" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E160" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E161" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E162" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="F163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E164" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="F164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D165" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="F165" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D167" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="F167" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D168" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F168" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F169" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C170" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D170" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D171" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="F171" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="F172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E173" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="F173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D174" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E177" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="F177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E178" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="F178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D179" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E179" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="F179" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D180" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E180" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="F180" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E181" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="F181" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D182" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E182" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="F182" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D183" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E183" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="F183" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C184" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D184" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E184" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="F184" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D185" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E185" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F185" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D186" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E186" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="F186" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D187" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="F187" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D188" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="F188" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D189" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E189" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="F189" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D190" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="F190" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D191" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E191" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="F191" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D192" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="F192" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D193" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E193" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="F193" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C194" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D194" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E194" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="F194" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D195" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E195" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="F195" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D196" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E196" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="F196" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C197" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D197" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E197" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="F197" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D198" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E198" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="F198" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C199" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D199" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E199" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="F199" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C200" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D200" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E200" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="F200" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C201" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D201" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E201" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="F201" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D202" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E202" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="F202" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D203" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E203" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="F203" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C204" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D204" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E204" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="F204" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C205" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D205" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E205" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="F205" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D206" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E206" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="F206" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G206" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C207" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="F207" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G207" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C208" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D208" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E208" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="F208" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C209" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D209" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E209" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="F209" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G209" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H209" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I209" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J209" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K209" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C210" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D210" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F210" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G210" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I210" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J210" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C211" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D211" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E211" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="F211" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G211" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H211" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I211" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J211" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K211" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C212" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D212" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E212" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="F212" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G212" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H212" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I212" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J212" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C213" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D213" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E213" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F213" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G213" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H213" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I213" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J213" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C214" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="D141" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E141" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s" s="2">
+      <c r="D214" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E214" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="F214" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G214" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H214" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I214" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J214" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K214" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C215" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D215" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E215" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="F215" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G215" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H215" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I141" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K141" t="s" s="2">
+      <c r="I215" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J215" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K215" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C216" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D216" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E216" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="F216" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G216" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H216" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I216" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J216" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K216" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C217" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D217" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E217" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="F217" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G217" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H217" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I217" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J217" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C218" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D218" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E218" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="F218" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G218" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H218" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I218" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J218" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K218" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C219" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D219" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E219" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="F219" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G219" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I219" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J219" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K219" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C220" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D220" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E220" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="F220" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G220" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H220" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I220" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K220" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C221" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D221" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E221" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F221" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G221" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I221" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J221" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C222" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D222" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F222" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G222" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I222" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J222" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C223" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D223" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E223" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="F223" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J223" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C224" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D224" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E224" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="F224" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G224" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="H224" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I224" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J224" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D225" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E225" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="F225" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G225" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D226" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E226" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F226" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G226" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D227" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E227" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="F227" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G227" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D228" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E228" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="F228" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G228" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D229" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E229" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="F229" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G229" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D230" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E230" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="F230" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G230" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D231" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="F231" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G231" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C232" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D232" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E232" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="F232" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G232" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H232" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I232" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J232" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K232" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C233" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D233" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E233" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="F233" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G233" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H233" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I233" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J233" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K233" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D234" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E234" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="F234" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G234" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H234" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D235" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E235" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="F235" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G235" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I235" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J235" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D236" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E236" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="F236" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G236" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H236" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I236" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J236" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C237" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D237" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E237" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="F237" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G237" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H237" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I237" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J237" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C238" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D238" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E238" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="F238" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G238" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H238" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I238" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J238" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K238" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C239" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D239" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E239" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="F239" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G239" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H239" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I239" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J239" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K239" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D240" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E240" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="F240" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G240" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H240" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I240" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J240" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K240" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D241" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E241" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="F241" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G241" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I241" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J241" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C242" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D242" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E242" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="F242" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G242" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H242" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I242" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J242" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K242" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C243" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D243" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E243" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="F243" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G243" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I243" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J243" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K243" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C244" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D244" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E244" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="F244" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G244" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H244" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I244" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J244" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K244" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C245" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D245" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E245" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="F245" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G245" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H245" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I245" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J245" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K245" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C246" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D246" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E246" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="F246" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G246" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H246" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I246" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J246" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K246" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C247" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="D247" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E247" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="F247" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G247" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H247" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="I247" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J247" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K247" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C248" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D248" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E248" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="F248" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G248" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H248" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I248" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J248" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K248" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C249" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D249" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E249" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="F249" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G249" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H249" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I249" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J249" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K249" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C250" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D250" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E250" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="F250" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G250" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H250" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I250" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J250" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K250" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C251" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D251" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E251" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="F251" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G251" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H251" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I251" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J251" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K251" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B252" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C252" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D252" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E252" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="F252" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G252" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H252" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I252" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J252" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K252" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B253" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C253" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D253" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E253" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="F253" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G253" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H253" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I253" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J253" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K253" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B254" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C254" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D254" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E254" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="F254" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G254" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H254" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I254" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J254" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K254" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B255" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C255" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D255" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E255" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="F255" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G255" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H255" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I255" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J255" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K255" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B256" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C256" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D256" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E256" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="F256" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G256" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H256" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I256" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J256" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K256" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B257" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C257" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D257" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E257" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="F257" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G257" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H257" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I257" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J257" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K257" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B258" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C258" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D258" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E258" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="F258" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G258" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H258" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I258" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J258" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K258" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C259" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D259" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E259" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="F259" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G259" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H259" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I259" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J259" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K259" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B260" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C260" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="D260" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E260" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="F260" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G260" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H260" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I260" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J260" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K260" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B261" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C261" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D261" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E261" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="F261" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G261" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H261" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I261" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J261" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K261" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B262" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C262" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D262" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E262" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="F262" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G262" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H262" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I262" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J262" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K262" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B263" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C263" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D263" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E263" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="F263" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G263" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H263" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I263" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J263" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K263" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B264" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C264" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D264" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E264" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="F264" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G264" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H264" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I264" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J264" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K264" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B265" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C265" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D265" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E265" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="F265" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G265" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H265" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I265" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J265" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K265" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B266" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C266" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D266" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E266" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="F266" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G266" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H266" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I266" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J266" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K266" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B267" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C267" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D267" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E267" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="F267" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G267" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H267" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I267" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J267" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K267" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B268" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C268" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D268" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E268" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="F268" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G268" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H268" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I268" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J268" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K268" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B269" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C269" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D269" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E269" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="F269" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G269" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H269" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I269" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J269" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K269" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B270" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C270" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D270" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E270" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="F270" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G270" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H270" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I270" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J270" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K270" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B271" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C271" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D271" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E271" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="F271" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G271" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H271" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I271" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J271" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K271" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B272" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C272" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D272" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E272" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="F272" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G272" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H272" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I272" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J272" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K272" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B273" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C273" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D273" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E273" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="F273" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G273" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H273" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I273" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J273" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K273" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B274" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C274" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D274" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E274" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="F274" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G274" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H274" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I274" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J274" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K274" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B275" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C275" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D275" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E275" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="F275" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G275" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H275" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I275" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J275" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K275" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B276" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C276" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D276" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E276" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="F276" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H276" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I276" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J276" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K276" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B277" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C277" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D277" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E277" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="F277" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G277" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H277" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I277" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J277" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K277" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B278" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C278" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D278" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E278" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="F278" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G278" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H278" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I278" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J278" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K278" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B279" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C279" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D279" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E279" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="F279" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G279" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H279" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I279" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J279" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K279" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B280" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C280" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D280" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E280" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="F280" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G280" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H280" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I280" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J280" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K280" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B281" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C281" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D281" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E281" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="F281" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G281" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H281" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I281" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J281" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K281" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B282" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C282" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D282" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E282" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="F282" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G282" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H282" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I282" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J282" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K282" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C283" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D283" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E283" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="F283" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G283" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H283" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I283" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J283" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K283" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B284" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C284" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D284" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E284" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="F284" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G284" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H284" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I284" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J284" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K284" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B285" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C285" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D285" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E285" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="F285" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G285" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H285" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I285" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J285" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K285" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B286" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C286" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D286" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E286" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="F286" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G286" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H286" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I286" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J286" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K286" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B287" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C287" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D287" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E287" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="F287" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G287" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H287" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I287" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J287" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K287" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B288" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C288" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D288" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E288" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="F288" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G288" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H288" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I288" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J288" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K288" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B289" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C289" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D289" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E289" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="F289" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G289" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H289" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I289" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J289" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K289" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B290" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C290" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D290" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E290" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="F290" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G290" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H290" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I290" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J290" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K290" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B291" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C291" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D291" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E291" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="F291" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G291" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H291" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I291" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J291" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K291" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B292" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C292" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D292" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E292" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="F292" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G292" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H292" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I292" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J292" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K292" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B293" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C293" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D293" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E293" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="F293" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G293" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H293" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I293" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J293" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K293" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B294" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C294" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D294" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E294" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="F294" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G294" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H294" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I294" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J294" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K294" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B295" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C295" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D295" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E295" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="F295" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G295" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H295" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I295" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J295" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K295" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B296" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C296" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D296" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E296" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="F296" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G296" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H296" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I296" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J296" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K296" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="398">
   <si>
     <t>Profile</t>
   </si>
@@ -341,6 +341,15 @@
     <t>CGM Metrics CodeSystem#sensor-days</t>
   </si>
   <si>
+    <t>consumer-ecg-observation</t>
+  </si>
+  <si>
+    <t>Consumer ECG Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1 (extensible)</t>
+  </si>
+  <si>
     <t>crp-observation</t>
   </si>
   <si>
@@ -359,7 +368,7 @@
     <t>Cycling Dynamics Observation Profile</t>
   </si>
   <si>
-    <t>SNOMED CT#52087000</t>
+    <t>LOINC#73985-4</t>
   </si>
   <si>
     <t>Cycling Metrics CodeSystem#instant-power</t>
@@ -383,7 +392,7 @@
     <t>Cycling Metrics CodeSystem#if</t>
   </si>
   <si>
-    <t>LOINC#103211-4</t>
+    <t>Cycling Metrics CodeSystem#cadence</t>
   </si>
   <si>
     <t>Cycling Metrics CodeSystem#avg-cadence</t>
@@ -437,6 +446,15 @@
     <t>LOINC#82810-3</t>
   </si>
   <si>
+    <t>heart-rate-ecg-observation</t>
+  </si>
+  <si>
+    <t>Heart Rate by ECG Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#76282-3</t>
+  </si>
+  <si>
     <t>heart-rate-observation</t>
   </si>
   <si>
@@ -500,9 +518,6 @@
     <t>Lifestyle Medicine Vital Signs Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1 (extensible)</t>
-  </si>
-  <si>
     <t>macronutrients-observation</t>
   </si>
   <si>
@@ -614,6 +629,42 @@
     <t>LOINC#55424-6</t>
   </si>
   <si>
+    <t>pr-interval-observation</t>
+  </si>
+  <si>
+    <t>PR Interval Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#8625-6</t>
+  </si>
+  <si>
+    <t>qrs-duration-observation</t>
+  </si>
+  <si>
+    <t>QRS Duration Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#44973-6</t>
+  </si>
+  <si>
+    <t>qt-interval-observation</t>
+  </si>
+  <si>
+    <t>QT Interval Observation Profile</t>
+  </si>
+  <si>
+    <t>LOINC#8634-8</t>
+  </si>
+  <si>
+    <t>LOINC#8636-3</t>
+  </si>
+  <si>
+    <t>ECG Components CodeSystem#qt-correction-formula</t>
+  </si>
+  <si>
+    <t>LOINC#8637-1</t>
+  </si>
+  <si>
     <t>recovery-readiness-observation</t>
   </si>
   <si>
@@ -710,9 +761,6 @@
     <t>Running Dynamics Observation Profile</t>
   </si>
   <si>
-    <t>SNOMED CT#52226006</t>
-  </si>
-  <si>
     <t>Running Metrics CodeSystem#gct</t>
   </si>
   <si>
@@ -725,7 +773,7 @@
     <t>Running Metrics CodeSystem#vr</t>
   </si>
   <si>
-    <t>LOINC#103204-9</t>
+    <t>Running Metrics CodeSystem#cadence</t>
   </si>
   <si>
     <t>Running Metrics CodeSystem#stride</t>
@@ -810,9 +858,6 @@
   </si>
   <si>
     <t>Strength Training Observation Profile</t>
-  </si>
-  <si>
-    <t>SNOMED CT#266940006</t>
   </si>
   <si>
     <t>Strength Training CodeSystem#exercise-name</t>
@@ -1294,7 +1339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K296"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3548,19 +3593,19 @@
         <v>110</v>
       </c>
       <c r="C65" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="D65" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G65" t="s" s="2">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>60</v>
@@ -3577,13 +3622,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="C66" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>13</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -3595,10 +3640,10 @@
         <v>14</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -3612,28 +3657,28 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>18</v>
@@ -3650,7 +3695,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>14</v>
@@ -3659,7 +3704,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>14</v>
@@ -3685,7 +3730,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>14</v>
@@ -3694,7 +3739,7 @@
         <v>14</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>14</v>
@@ -3720,7 +3765,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>14</v>
@@ -3729,7 +3774,7 @@
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
@@ -3755,7 +3800,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>14</v>
@@ -3764,7 +3809,7 @@
         <v>14</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>14</v>
@@ -3790,7 +3835,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>14</v>
@@ -3799,7 +3844,7 @@
         <v>14</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>14</v>
@@ -3825,7 +3870,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>14</v>
@@ -3834,7 +3879,7 @@
         <v>14</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>14</v>
@@ -3860,7 +3905,7 @@
         <v>14</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>14</v>
@@ -3869,7 +3914,7 @@
         <v>14</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>14</v>
@@ -3895,7 +3940,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>14</v>
@@ -3904,7 +3949,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>14</v>
@@ -3930,7 +3975,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>14</v>
@@ -3939,7 +3984,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>14</v>
@@ -3965,7 +4010,7 @@
         <v>14</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>14</v>
@@ -3974,7 +4019,7 @@
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>14</v>
@@ -4000,7 +4045,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>14</v>
@@ -4009,7 +4054,7 @@
         <v>14</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>14</v>
@@ -4035,7 +4080,7 @@
         <v>14</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>14</v>
@@ -4044,7 +4089,7 @@
         <v>14</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>14</v>
@@ -4070,7 +4115,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>14</v>
@@ -4079,7 +4124,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>14</v>
@@ -4105,7 +4150,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>14</v>
@@ -4114,7 +4159,7 @@
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>14</v>
@@ -4140,7 +4185,7 @@
         <v>14</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>14</v>
@@ -4149,7 +4194,7 @@
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>14</v>
@@ -4158,7 +4203,7 @@
         <v>14</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>18</v>
@@ -4175,7 +4220,7 @@
         <v>14</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>14</v>
@@ -4184,7 +4229,7 @@
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>14</v>
@@ -4207,28 +4252,28 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>18</v>
@@ -4242,22 +4287,22 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>31</v>
@@ -4277,25 +4322,25 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>17</v>
@@ -4315,7 +4360,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>14</v>
@@ -4324,7 +4369,7 @@
         <v>14</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>14</v>
@@ -4350,7 +4395,7 @@
         <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>14</v>
@@ -4359,7 +4404,7 @@
         <v>14</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
@@ -4382,13 +4427,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>14</v>
@@ -4400,10 +4445,10 @@
         <v>14</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>18</v>
@@ -4417,25 +4462,25 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>60</v>
@@ -4452,25 +4497,25 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>60</v>
@@ -4490,7 +4535,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>14</v>
@@ -4499,7 +4544,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
@@ -4525,7 +4570,7 @@
         <v>14</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>14</v>
@@ -4534,7 +4579,7 @@
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>14</v>
@@ -4557,28 +4602,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>18</v>
@@ -4592,10 +4637,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>14</v>
@@ -4604,16 +4649,16 @@
         <v>14</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>18</v>
@@ -4633,7 +4678,7 @@
         <v>153</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>14</v>
@@ -4648,7 +4693,7 @@
         <v>31</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>18</v>
@@ -4668,7 +4713,7 @@
         <v>156</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>14</v>
@@ -4677,13 +4722,13 @@
         <v>157</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>31</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>18</v>
@@ -4703,16 +4748,16 @@
         <v>159</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>31</v>
@@ -4732,25 +4777,25 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>60</v>
@@ -4767,28 +4812,28 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>31</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>18</v>
@@ -4802,28 +4847,28 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>18</v>
@@ -4837,25 +4882,25 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>17</v>
@@ -4875,7 +4920,7 @@
         <v>14</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>14</v>
@@ -4884,7 +4929,7 @@
         <v>14</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>14</v>
@@ -4907,11 +4952,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="B104" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="C104" t="s" s="2">
         <v>14</v>
       </c>
@@ -4919,16 +4964,16 @@
         <v>14</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>18</v>
@@ -4945,7 +4990,7 @@
         <v>14</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>14</v>
@@ -4954,7 +4999,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>14</v>
@@ -4963,7 +5008,7 @@
         <v>14</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>18</v>
@@ -4977,10 +5022,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>14</v>
@@ -4989,16 +5034,16 @@
         <v>14</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>18</v>
@@ -5015,7 +5060,7 @@
         <v>14</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>14</v>
@@ -5024,7 +5069,7 @@
         <v>14</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>14</v>
@@ -5033,7 +5078,7 @@
         <v>14</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>18</v>
@@ -5050,7 +5095,7 @@
         <v>14</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>14</v>
@@ -5059,7 +5104,7 @@
         <v>14</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>14</v>
@@ -5068,7 +5113,7 @@
         <v>14</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>18</v>
@@ -5085,7 +5130,7 @@
         <v>14</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>14</v>
@@ -5094,7 +5139,7 @@
         <v>14</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>14</v>
@@ -5117,28 +5162,28 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>18</v>
@@ -5155,7 +5200,7 @@
         <v>14</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>14</v>
@@ -5164,7 +5209,7 @@
         <v>14</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>14</v>
@@ -5173,7 +5218,7 @@
         <v>14</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>18</v>
@@ -5187,25 +5232,25 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>17</v>
@@ -5225,7 +5270,7 @@
         <v>14</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>14</v>
@@ -5234,7 +5279,7 @@
         <v>14</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>14</v>
@@ -5260,7 +5305,7 @@
         <v>14</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>14</v>
@@ -5269,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>14</v>
@@ -5292,25 +5337,25 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="B115" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="C115" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>17</v>
@@ -5330,7 +5375,7 @@
         <v>14</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>14</v>
@@ -5339,7 +5384,7 @@
         <v>14</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>14</v>
@@ -5362,25 +5407,25 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>17</v>
@@ -5400,7 +5445,7 @@
         <v>14</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>14</v>
@@ -5409,7 +5454,7 @@
         <v>14</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>14</v>
@@ -5435,7 +5480,7 @@
         <v>14</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>14</v>
@@ -5444,7 +5489,7 @@
         <v>14</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>14</v>
@@ -5467,25 +5512,25 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="B120" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="C120" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E120" t="s" s="2">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>17</v>
@@ -5502,13 +5547,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>14</v>
@@ -5520,10 +5565,10 @@
         <v>14</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>18</v>
@@ -5543,7 +5588,7 @@
         <v>196</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>14</v>
@@ -5552,13 +5597,13 @@
         <v>14</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>31</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>18</v>
@@ -5572,28 +5617,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E123" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>18</v>
@@ -5607,28 +5652,28 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E124" t="s" s="2">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>18</v>
@@ -5645,7 +5690,7 @@
         <v>14</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>14</v>
@@ -5654,7 +5699,7 @@
         <v>14</v>
       </c>
       <c r="E125" t="s" s="2">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="F125" t="s" s="2">
         <v>14</v>
@@ -5680,7 +5725,7 @@
         <v>14</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>14</v>
@@ -5689,7 +5734,7 @@
         <v>14</v>
       </c>
       <c r="E126" t="s" s="2">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>14</v>
@@ -5712,28 +5757,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>201</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E127" t="s" s="2">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="F127" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>18</v>
@@ -5759,7 +5804,7 @@
         <v>14</v>
       </c>
       <c r="E128" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F128" t="s" s="2">
         <v>14</v>
@@ -5768,7 +5813,7 @@
         <v>14</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>18</v>
@@ -5782,28 +5827,28 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E129" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>18</v>
@@ -5817,28 +5862,28 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E130" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>18</v>
@@ -5852,28 +5897,28 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E131" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>18</v>
@@ -5890,7 +5935,7 @@
         <v>14</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C132" t="s" s="2">
         <v>14</v>
@@ -5899,7 +5944,7 @@
         <v>14</v>
       </c>
       <c r="E132" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F132" t="s" s="2">
         <v>14</v>
@@ -5908,7 +5953,7 @@
         <v>14</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>18</v>
@@ -5925,7 +5970,7 @@
         <v>14</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>14</v>
@@ -5934,7 +5979,7 @@
         <v>14</v>
       </c>
       <c r="E133" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>14</v>
@@ -5943,7 +5988,7 @@
         <v>14</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>18</v>
@@ -5960,7 +6005,7 @@
         <v>14</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C134" t="s" s="2">
         <v>14</v>
@@ -5969,7 +6014,7 @@
         <v>14</v>
       </c>
       <c r="E134" t="s" s="2">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="F134" t="s" s="2">
         <v>14</v>
@@ -5978,7 +6023,7 @@
         <v>14</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>18</v>
@@ -5995,7 +6040,7 @@
         <v>14</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>14</v>
@@ -6004,7 +6049,7 @@
         <v>14</v>
       </c>
       <c r="E135" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F135" t="s" s="2">
         <v>14</v>
@@ -6013,7 +6058,7 @@
         <v>14</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>18</v>
@@ -6027,28 +6072,28 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E136" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>18</v>
@@ -6065,7 +6110,7 @@
         <v>14</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>14</v>
@@ -6074,7 +6119,7 @@
         <v>14</v>
       </c>
       <c r="E137" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F137" t="s" s="2">
         <v>14</v>
@@ -6083,7 +6128,7 @@
         <v>14</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I137" t="s" s="2">
         <v>18</v>
@@ -6100,7 +6145,7 @@
         <v>14</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>14</v>
@@ -6109,7 +6154,7 @@
         <v>14</v>
       </c>
       <c r="E138" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F138" t="s" s="2">
         <v>14</v>
@@ -6135,7 +6180,7 @@
         <v>14</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>14</v>
@@ -6144,7 +6189,7 @@
         <v>14</v>
       </c>
       <c r="E139" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F139" t="s" s="2">
         <v>14</v>
@@ -6153,7 +6198,7 @@
         <v>14</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>18</v>
@@ -6170,7 +6215,7 @@
         <v>14</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>14</v>
@@ -6179,7 +6224,7 @@
         <v>14</v>
       </c>
       <c r="E140" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>14</v>
@@ -6188,7 +6233,7 @@
         <v>14</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>18</v>
@@ -6205,7 +6250,7 @@
         <v>14</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>14</v>
@@ -6214,7 +6259,7 @@
         <v>14</v>
       </c>
       <c r="E141" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F141" t="s" s="2">
         <v>14</v>
@@ -6223,7 +6268,7 @@
         <v>14</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I141" t="s" s="2">
         <v>18</v>
@@ -6240,7 +6285,7 @@
         <v>14</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>14</v>
@@ -6249,7 +6294,7 @@
         <v>14</v>
       </c>
       <c r="E142" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F142" t="s" s="2">
         <v>14</v>
@@ -6258,7 +6303,7 @@
         <v>14</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>18</v>
@@ -6275,7 +6320,7 @@
         <v>14</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>14</v>
@@ -6284,7 +6329,7 @@
         <v>14</v>
       </c>
       <c r="E143" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F143" t="s" s="2">
         <v>14</v>
@@ -6293,7 +6338,7 @@
         <v>14</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>18</v>
@@ -6310,7 +6355,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C144" t="s" s="2">
         <v>14</v>
@@ -6319,7 +6364,7 @@
         <v>14</v>
       </c>
       <c r="E144" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>14</v>
@@ -6345,7 +6390,7 @@
         <v>14</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>14</v>
@@ -6354,7 +6399,7 @@
         <v>14</v>
       </c>
       <c r="E145" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F145" t="s" s="2">
         <v>14</v>
@@ -6380,7 +6425,7 @@
         <v>14</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>14</v>
@@ -6389,7 +6434,7 @@
         <v>14</v>
       </c>
       <c r="E146" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F146" t="s" s="2">
         <v>14</v>
@@ -6415,7 +6460,7 @@
         <v>14</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>14</v>
@@ -6424,7 +6469,7 @@
         <v>14</v>
       </c>
       <c r="E147" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F147" t="s" s="2">
         <v>14</v>
@@ -6433,7 +6478,7 @@
         <v>14</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>18</v>
@@ -6450,7 +6495,7 @@
         <v>14</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C148" t="s" s="2">
         <v>14</v>
@@ -6459,7 +6504,7 @@
         <v>14</v>
       </c>
       <c r="E148" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F148" t="s" s="2">
         <v>14</v>
@@ -6468,7 +6513,7 @@
         <v>14</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>18</v>
@@ -6482,28 +6527,28 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E149" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F149" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>18</v>
@@ -6520,7 +6565,7 @@
         <v>14</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>14</v>
@@ -6529,7 +6574,7 @@
         <v>14</v>
       </c>
       <c r="E150" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>14</v>
@@ -6555,7 +6600,7 @@
         <v>14</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>14</v>
@@ -6564,7 +6609,7 @@
         <v>14</v>
       </c>
       <c r="E151" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>14</v>
@@ -6590,7 +6635,7 @@
         <v>14</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>14</v>
@@ -6599,7 +6644,7 @@
         <v>14</v>
       </c>
       <c r="E152" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>14</v>
@@ -6608,7 +6653,7 @@
         <v>14</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>18</v>
@@ -6622,28 +6667,28 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E153" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F153" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>18</v>
@@ -6660,7 +6705,7 @@
         <v>14</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>14</v>
@@ -6669,7 +6714,7 @@
         <v>14</v>
       </c>
       <c r="E154" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F154" t="s" s="2">
         <v>14</v>
@@ -6695,7 +6740,7 @@
         <v>14</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>14</v>
@@ -6704,7 +6749,7 @@
         <v>14</v>
       </c>
       <c r="E155" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F155" t="s" s="2">
         <v>14</v>
@@ -6730,7 +6775,7 @@
         <v>14</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>14</v>
@@ -6739,7 +6784,7 @@
         <v>14</v>
       </c>
       <c r="E156" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F156" t="s" s="2">
         <v>14</v>
@@ -6765,7 +6810,7 @@
         <v>14</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>14</v>
@@ -6774,7 +6819,7 @@
         <v>14</v>
       </c>
       <c r="E157" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F157" t="s" s="2">
         <v>14</v>
@@ -6783,7 +6828,7 @@
         <v>14</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>18</v>
@@ -6797,28 +6842,28 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E158" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>18</v>
@@ -6835,7 +6880,7 @@
         <v>14</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>14</v>
@@ -6844,7 +6889,7 @@
         <v>14</v>
       </c>
       <c r="E159" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F159" t="s" s="2">
         <v>14</v>
@@ -6853,7 +6898,7 @@
         <v>14</v>
       </c>
       <c r="H159" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I159" t="s" s="2">
         <v>18</v>
@@ -6870,7 +6915,7 @@
         <v>14</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C160" t="s" s="2">
         <v>14</v>
@@ -6879,7 +6924,7 @@
         <v>14</v>
       </c>
       <c r="E160" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F160" t="s" s="2">
         <v>14</v>
@@ -6888,7 +6933,7 @@
         <v>14</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>18</v>
@@ -6905,7 +6950,7 @@
         <v>14</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>14</v>
@@ -6914,7 +6959,7 @@
         <v>14</v>
       </c>
       <c r="E161" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F161" t="s" s="2">
         <v>14</v>
@@ -6923,7 +6968,7 @@
         <v>14</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I161" t="s" s="2">
         <v>18</v>
@@ -6937,28 +6982,28 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E162" t="s" s="2">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="F162" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>18</v>
@@ -6975,7 +7020,7 @@
         <v>14</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>14</v>
@@ -6984,7 +7029,7 @@
         <v>14</v>
       </c>
       <c r="E163" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F163" t="s" s="2">
         <v>14</v>
@@ -7010,7 +7055,7 @@
         <v>14</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>14</v>
@@ -7019,7 +7064,7 @@
         <v>14</v>
       </c>
       <c r="E164" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F164" t="s" s="2">
         <v>14</v>
@@ -7045,7 +7090,7 @@
         <v>14</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>14</v>
@@ -7054,7 +7099,7 @@
         <v>14</v>
       </c>
       <c r="E165" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>14</v>
@@ -7063,7 +7108,7 @@
         <v>14</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>18</v>
@@ -7080,7 +7125,7 @@
         <v>14</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>14</v>
@@ -7089,7 +7134,7 @@
         <v>14</v>
       </c>
       <c r="E166" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>14</v>
@@ -7115,7 +7160,7 @@
         <v>14</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>14</v>
@@ -7124,7 +7169,7 @@
         <v>14</v>
       </c>
       <c r="E167" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F167" t="s" s="2">
         <v>14</v>
@@ -7150,7 +7195,7 @@
         <v>14</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C168" t="s" s="2">
         <v>14</v>
@@ -7159,7 +7204,7 @@
         <v>14</v>
       </c>
       <c r="E168" t="s" s="2">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="F168" t="s" s="2">
         <v>14</v>
@@ -7185,7 +7230,7 @@
         <v>14</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C169" t="s" s="2">
         <v>14</v>
@@ -7194,7 +7239,7 @@
         <v>14</v>
       </c>
       <c r="E169" t="s" s="2">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>14</v>
@@ -7220,7 +7265,7 @@
         <v>14</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C170" t="s" s="2">
         <v>14</v>
@@ -7229,7 +7274,7 @@
         <v>14</v>
       </c>
       <c r="E170" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>14</v>
@@ -7255,7 +7300,7 @@
         <v>14</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>14</v>
@@ -7264,7 +7309,7 @@
         <v>14</v>
       </c>
       <c r="E171" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F171" t="s" s="2">
         <v>14</v>
@@ -7290,7 +7335,7 @@
         <v>14</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C172" t="s" s="2">
         <v>14</v>
@@ -7299,7 +7344,7 @@
         <v>14</v>
       </c>
       <c r="E172" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>14</v>
@@ -7308,7 +7353,7 @@
         <v>14</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>18</v>
@@ -7325,7 +7370,7 @@
         <v>14</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>14</v>
@@ -7334,7 +7379,7 @@
         <v>14</v>
       </c>
       <c r="E173" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F173" t="s" s="2">
         <v>14</v>
@@ -7343,7 +7388,7 @@
         <v>14</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I173" t="s" s="2">
         <v>18</v>
@@ -7357,28 +7402,28 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E174" t="s" s="2">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>18</v>
@@ -7395,7 +7440,7 @@
         <v>14</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C175" t="s" s="2">
         <v>14</v>
@@ -7404,7 +7449,7 @@
         <v>14</v>
       </c>
       <c r="E175" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F175" t="s" s="2">
         <v>14</v>
@@ -7413,7 +7458,7 @@
         <v>14</v>
       </c>
       <c r="H175" t="s" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I175" t="s" s="2">
         <v>18</v>
@@ -7430,7 +7475,7 @@
         <v>14</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>14</v>
@@ -7439,7 +7484,7 @@
         <v>14</v>
       </c>
       <c r="E176" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F176" t="s" s="2">
         <v>14</v>
@@ -7465,7 +7510,7 @@
         <v>14</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>14</v>
@@ -7474,7 +7519,7 @@
         <v>14</v>
       </c>
       <c r="E177" t="s" s="2">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="F177" t="s" s="2">
         <v>14</v>
@@ -7483,7 +7528,7 @@
         <v>14</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>18</v>
@@ -7500,7 +7545,7 @@
         <v>14</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C178" t="s" s="2">
         <v>14</v>
@@ -7509,7 +7554,7 @@
         <v>14</v>
       </c>
       <c r="E178" t="s" s="2">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="F178" t="s" s="2">
         <v>14</v>
@@ -7518,7 +7563,7 @@
         <v>14</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>18</v>
@@ -7532,28 +7577,28 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E179" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I179" t="s" s="2">
         <v>18</v>
@@ -7570,7 +7615,7 @@
         <v>14</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C180" t="s" s="2">
         <v>14</v>
@@ -7579,7 +7624,7 @@
         <v>14</v>
       </c>
       <c r="E180" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F180" t="s" s="2">
         <v>14</v>
@@ -7588,7 +7633,7 @@
         <v>14</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>18</v>
@@ -7605,7 +7650,7 @@
         <v>14</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C181" t="s" s="2">
         <v>14</v>
@@ -7614,7 +7659,7 @@
         <v>14</v>
       </c>
       <c r="E181" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F181" t="s" s="2">
         <v>14</v>
@@ -7623,7 +7668,7 @@
         <v>14</v>
       </c>
       <c r="H181" t="s" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I181" t="s" s="2">
         <v>18</v>
@@ -7640,7 +7685,7 @@
         <v>14</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C182" t="s" s="2">
         <v>14</v>
@@ -7649,7 +7694,7 @@
         <v>14</v>
       </c>
       <c r="E182" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F182" t="s" s="2">
         <v>14</v>
@@ -7658,7 +7703,7 @@
         <v>14</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>18</v>
@@ -7672,28 +7717,28 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E183" t="s" s="2">
-        <v>263</v>
+        <v>14</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>18</v>
@@ -7707,28 +7752,28 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D184" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E184" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F184" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I184" t="s" s="2">
         <v>18</v>
@@ -7745,7 +7790,7 @@
         <v>14</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C185" t="s" s="2">
         <v>14</v>
@@ -7754,7 +7799,7 @@
         <v>14</v>
       </c>
       <c r="E185" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F185" t="s" s="2">
         <v>14</v>
@@ -7763,7 +7808,7 @@
         <v>14</v>
       </c>
       <c r="H185" t="s" s="2">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="I185" t="s" s="2">
         <v>18</v>
@@ -7780,7 +7825,7 @@
         <v>14</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C186" t="s" s="2">
         <v>14</v>
@@ -7789,7 +7834,7 @@
         <v>14</v>
       </c>
       <c r="E186" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F186" t="s" s="2">
         <v>14</v>
@@ -7815,7 +7860,7 @@
         <v>14</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C187" t="s" s="2">
         <v>14</v>
@@ -7824,7 +7869,7 @@
         <v>14</v>
       </c>
       <c r="E187" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F187" t="s" s="2">
         <v>14</v>
@@ -7847,25 +7892,25 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E188" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F188" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H188" t="s" s="2">
         <v>47</v>
@@ -7885,7 +7930,7 @@
         <v>14</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C189" t="s" s="2">
         <v>14</v>
@@ -7894,7 +7939,7 @@
         <v>14</v>
       </c>
       <c r="E189" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F189" t="s" s="2">
         <v>14</v>
@@ -7903,7 +7948,7 @@
         <v>14</v>
       </c>
       <c r="H189" t="s" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I189" t="s" s="2">
         <v>18</v>
@@ -7920,7 +7965,7 @@
         <v>14</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C190" t="s" s="2">
         <v>14</v>
@@ -7929,7 +7974,7 @@
         <v>14</v>
       </c>
       <c r="E190" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F190" t="s" s="2">
         <v>14</v>
@@ -7938,7 +7983,7 @@
         <v>14</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I190" t="s" s="2">
         <v>18</v>
@@ -7955,7 +8000,7 @@
         <v>14</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C191" t="s" s="2">
         <v>14</v>
@@ -7964,7 +8009,7 @@
         <v>14</v>
       </c>
       <c r="E191" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F191" t="s" s="2">
         <v>14</v>
@@ -7973,7 +8018,7 @@
         <v>14</v>
       </c>
       <c r="H191" t="s" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I191" t="s" s="2">
         <v>18</v>
@@ -7990,7 +8035,7 @@
         <v>14</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C192" t="s" s="2">
         <v>14</v>
@@ -7999,7 +8044,7 @@
         <v>14</v>
       </c>
       <c r="E192" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F192" t="s" s="2">
         <v>14</v>
@@ -8008,7 +8053,7 @@
         <v>14</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I192" t="s" s="2">
         <v>18</v>
@@ -8022,28 +8067,28 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E193" t="s" s="2">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="F193" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H193" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I193" t="s" s="2">
         <v>18</v>
@@ -8060,7 +8105,7 @@
         <v>14</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C194" t="s" s="2">
         <v>14</v>
@@ -8069,7 +8114,7 @@
         <v>14</v>
       </c>
       <c r="E194" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F194" t="s" s="2">
         <v>14</v>
@@ -8078,7 +8123,7 @@
         <v>14</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="I194" t="s" s="2">
         <v>18</v>
@@ -8095,7 +8140,7 @@
         <v>14</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C195" t="s" s="2">
         <v>14</v>
@@ -8104,7 +8149,7 @@
         <v>14</v>
       </c>
       <c r="E195" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F195" t="s" s="2">
         <v>14</v>
@@ -8113,7 +8158,7 @@
         <v>14</v>
       </c>
       <c r="H195" t="s" s="2">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I195" t="s" s="2">
         <v>18</v>
@@ -8130,7 +8175,7 @@
         <v>14</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C196" t="s" s="2">
         <v>14</v>
@@ -8139,7 +8184,7 @@
         <v>14</v>
       </c>
       <c r="E196" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F196" t="s" s="2">
         <v>14</v>
@@ -8148,7 +8193,7 @@
         <v>14</v>
       </c>
       <c r="H196" t="s" s="2">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I196" t="s" s="2">
         <v>18</v>
@@ -8165,7 +8210,7 @@
         <v>14</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C197" t="s" s="2">
         <v>14</v>
@@ -8174,7 +8219,7 @@
         <v>14</v>
       </c>
       <c r="E197" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F197" t="s" s="2">
         <v>14</v>
@@ -8183,7 +8228,7 @@
         <v>14</v>
       </c>
       <c r="H197" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I197" t="s" s="2">
         <v>18</v>
@@ -8200,7 +8245,7 @@
         <v>14</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C198" t="s" s="2">
         <v>14</v>
@@ -8209,7 +8254,7 @@
         <v>14</v>
       </c>
       <c r="E198" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F198" t="s" s="2">
         <v>14</v>
@@ -8218,7 +8263,7 @@
         <v>14</v>
       </c>
       <c r="H198" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I198" t="s" s="2">
         <v>18</v>
@@ -8235,7 +8280,7 @@
         <v>14</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C199" t="s" s="2">
         <v>14</v>
@@ -8244,7 +8289,7 @@
         <v>14</v>
       </c>
       <c r="E199" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F199" t="s" s="2">
         <v>14</v>
@@ -8253,7 +8298,7 @@
         <v>14</v>
       </c>
       <c r="H199" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I199" t="s" s="2">
         <v>18</v>
@@ -8270,7 +8315,7 @@
         <v>14</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C200" t="s" s="2">
         <v>14</v>
@@ -8279,7 +8324,7 @@
         <v>14</v>
       </c>
       <c r="E200" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F200" t="s" s="2">
         <v>14</v>
@@ -8288,7 +8333,7 @@
         <v>14</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I200" t="s" s="2">
         <v>18</v>
@@ -8305,7 +8350,7 @@
         <v>14</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C201" t="s" s="2">
         <v>14</v>
@@ -8314,7 +8359,7 @@
         <v>14</v>
       </c>
       <c r="E201" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F201" t="s" s="2">
         <v>14</v>
@@ -8323,7 +8368,7 @@
         <v>14</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I201" t="s" s="2">
         <v>18</v>
@@ -8340,7 +8385,7 @@
         <v>14</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C202" t="s" s="2">
         <v>14</v>
@@ -8349,7 +8394,7 @@
         <v>14</v>
       </c>
       <c r="E202" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F202" t="s" s="2">
         <v>14</v>
@@ -8375,7 +8420,7 @@
         <v>14</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C203" t="s" s="2">
         <v>14</v>
@@ -8384,7 +8429,7 @@
         <v>14</v>
       </c>
       <c r="E203" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F203" t="s" s="2">
         <v>14</v>
@@ -8410,7 +8455,7 @@
         <v>14</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C204" t="s" s="2">
         <v>14</v>
@@ -8419,7 +8464,7 @@
         <v>14</v>
       </c>
       <c r="E204" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F204" t="s" s="2">
         <v>14</v>
@@ -8428,7 +8473,7 @@
         <v>14</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>18</v>
@@ -8445,7 +8490,7 @@
         <v>14</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C205" t="s" s="2">
         <v>14</v>
@@ -8454,7 +8499,7 @@
         <v>14</v>
       </c>
       <c r="E205" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F205" t="s" s="2">
         <v>14</v>
@@ -8480,7 +8525,7 @@
         <v>14</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C206" t="s" s="2">
         <v>14</v>
@@ -8489,7 +8534,7 @@
         <v>14</v>
       </c>
       <c r="E206" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F206" t="s" s="2">
         <v>14</v>
@@ -8498,7 +8543,7 @@
         <v>14</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>18</v>
@@ -8515,7 +8560,7 @@
         <v>14</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C207" t="s" s="2">
         <v>14</v>
@@ -8524,7 +8569,7 @@
         <v>14</v>
       </c>
       <c r="E207" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F207" t="s" s="2">
         <v>14</v>
@@ -8550,7 +8595,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C208" t="s" s="2">
         <v>14</v>
@@ -8559,7 +8604,7 @@
         <v>14</v>
       </c>
       <c r="E208" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F208" t="s" s="2">
         <v>14</v>
@@ -8585,7 +8630,7 @@
         <v>14</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>14</v>
@@ -8594,7 +8639,7 @@
         <v>14</v>
       </c>
       <c r="E209" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F209" t="s" s="2">
         <v>14</v>
@@ -8620,7 +8665,7 @@
         <v>14</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C210" t="s" s="2">
         <v>14</v>
@@ -8629,7 +8674,7 @@
         <v>14</v>
       </c>
       <c r="E210" t="s" s="2">
-        <v>127</v>
+        <v>298</v>
       </c>
       <c r="F210" t="s" s="2">
         <v>14</v>
@@ -8655,7 +8700,7 @@
         <v>14</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C211" t="s" s="2">
         <v>14</v>
@@ -8664,7 +8709,7 @@
         <v>14</v>
       </c>
       <c r="E211" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F211" t="s" s="2">
         <v>14</v>
@@ -8673,7 +8718,7 @@
         <v>14</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I211" t="s" s="2">
         <v>18</v>
@@ -8690,7 +8735,7 @@
         <v>14</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C212" t="s" s="2">
         <v>14</v>
@@ -8699,7 +8744,7 @@
         <v>14</v>
       </c>
       <c r="E212" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F212" t="s" s="2">
         <v>14</v>
@@ -8708,7 +8753,7 @@
         <v>14</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>18</v>
@@ -8725,7 +8770,7 @@
         <v>14</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C213" t="s" s="2">
         <v>14</v>
@@ -8734,7 +8779,7 @@
         <v>14</v>
       </c>
       <c r="E213" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F213" t="s" s="2">
         <v>14</v>
@@ -8743,7 +8788,7 @@
         <v>14</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>18</v>
@@ -8757,28 +8802,28 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D214" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E214" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F214" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>18</v>
@@ -8795,7 +8840,7 @@
         <v>14</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C215" t="s" s="2">
         <v>14</v>
@@ -8804,7 +8849,7 @@
         <v>14</v>
       </c>
       <c r="E215" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F215" t="s" s="2">
         <v>14</v>
@@ -8813,7 +8858,7 @@
         <v>14</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>18</v>
@@ -8830,7 +8875,7 @@
         <v>14</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C216" t="s" s="2">
         <v>14</v>
@@ -8839,7 +8884,7 @@
         <v>14</v>
       </c>
       <c r="E216" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F216" t="s" s="2">
         <v>14</v>
@@ -8848,7 +8893,7 @@
         <v>14</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>18</v>
@@ -8865,7 +8910,7 @@
         <v>14</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C217" t="s" s="2">
         <v>14</v>
@@ -8874,7 +8919,7 @@
         <v>14</v>
       </c>
       <c r="E217" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F217" t="s" s="2">
         <v>14</v>
@@ -8883,7 +8928,7 @@
         <v>14</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>18</v>
@@ -8900,7 +8945,7 @@
         <v>14</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C218" t="s" s="2">
         <v>14</v>
@@ -8909,7 +8954,7 @@
         <v>14</v>
       </c>
       <c r="E218" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F218" t="s" s="2">
         <v>14</v>
@@ -8918,7 +8963,7 @@
         <v>14</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>18</v>
@@ -8932,28 +8977,28 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D219" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E219" t="s" s="2">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="F219" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>18</v>
@@ -8970,7 +9015,7 @@
         <v>14</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C220" t="s" s="2">
         <v>14</v>
@@ -8979,7 +9024,7 @@
         <v>14</v>
       </c>
       <c r="E220" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F220" t="s" s="2">
         <v>14</v>
@@ -8988,7 +9033,7 @@
         <v>14</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>18</v>
@@ -9005,7 +9050,7 @@
         <v>14</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C221" t="s" s="2">
         <v>14</v>
@@ -9014,7 +9059,7 @@
         <v>14</v>
       </c>
       <c r="E221" t="s" s="2">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="F221" t="s" s="2">
         <v>14</v>
@@ -9023,7 +9068,7 @@
         <v>14</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>18</v>
@@ -9040,7 +9085,7 @@
         <v>14</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C222" t="s" s="2">
         <v>14</v>
@@ -9049,7 +9094,7 @@
         <v>14</v>
       </c>
       <c r="E222" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="F222" t="s" s="2">
         <v>14</v>
@@ -9072,28 +9117,28 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E223" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F223" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H223" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I223" t="s" s="2">
         <v>18</v>
@@ -9107,25 +9152,25 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>307</v>
+        <v>14</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E224" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F224" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>17</v>
@@ -9145,7 +9190,7 @@
         <v>14</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C225" t="s" s="2">
         <v>14</v>
@@ -9154,7 +9199,7 @@
         <v>14</v>
       </c>
       <c r="E225" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F225" t="s" s="2">
         <v>14</v>
@@ -9163,7 +9208,7 @@
         <v>14</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>18</v>
@@ -9180,7 +9225,7 @@
         <v>14</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C226" t="s" s="2">
         <v>14</v>
@@ -9189,7 +9234,7 @@
         <v>14</v>
       </c>
       <c r="E226" t="s" s="2">
-        <v>127</v>
+        <v>315</v>
       </c>
       <c r="F226" t="s" s="2">
         <v>14</v>
@@ -9198,7 +9243,7 @@
         <v>14</v>
       </c>
       <c r="H226" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I226" t="s" s="2">
         <v>18</v>
@@ -9215,7 +9260,7 @@
         <v>14</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C227" t="s" s="2">
         <v>14</v>
@@ -9224,7 +9269,7 @@
         <v>14</v>
       </c>
       <c r="E227" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F227" t="s" s="2">
         <v>14</v>
@@ -9233,7 +9278,7 @@
         <v>14</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>18</v>
@@ -9247,28 +9292,28 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D228" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E228" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F228" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G228" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>18</v>
@@ -9285,7 +9330,7 @@
         <v>14</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C229" t="s" s="2">
         <v>14</v>
@@ -9294,7 +9339,7 @@
         <v>14</v>
       </c>
       <c r="E229" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F229" t="s" s="2">
         <v>14</v>
@@ -9303,7 +9348,7 @@
         <v>14</v>
       </c>
       <c r="H229" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I229" t="s" s="2">
         <v>18</v>
@@ -9320,7 +9365,7 @@
         <v>14</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C230" t="s" s="2">
         <v>14</v>
@@ -9329,7 +9374,7 @@
         <v>14</v>
       </c>
       <c r="E230" t="s" s="2">
-        <v>314</v>
+        <v>46</v>
       </c>
       <c r="F230" t="s" s="2">
         <v>14</v>
@@ -9338,7 +9383,7 @@
         <v>14</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>18</v>
@@ -9355,7 +9400,7 @@
         <v>14</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C231" t="s" s="2">
         <v>14</v>
@@ -9364,7 +9409,7 @@
         <v>14</v>
       </c>
       <c r="E231" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="F231" t="s" s="2">
         <v>14</v>
@@ -9390,7 +9435,7 @@
         <v>14</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C232" t="s" s="2">
         <v>14</v>
@@ -9399,7 +9444,7 @@
         <v>14</v>
       </c>
       <c r="E232" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F232" t="s" s="2">
         <v>14</v>
@@ -9408,7 +9453,7 @@
         <v>14</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I232" t="s" s="2">
         <v>18</v>
@@ -9422,28 +9467,28 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D233" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E233" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F233" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G233" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H233" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I233" t="s" s="2">
         <v>18</v>
@@ -9460,7 +9505,7 @@
         <v>14</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C234" t="s" s="2">
         <v>14</v>
@@ -9469,7 +9514,7 @@
         <v>14</v>
       </c>
       <c r="E234" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F234" t="s" s="2">
         <v>14</v>
@@ -9495,7 +9540,7 @@
         <v>14</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C235" t="s" s="2">
         <v>14</v>
@@ -9504,7 +9549,7 @@
         <v>14</v>
       </c>
       <c r="E235" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="F235" t="s" s="2">
         <v>14</v>
@@ -9513,7 +9558,7 @@
         <v>14</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I235" t="s" s="2">
         <v>18</v>
@@ -9530,7 +9575,7 @@
         <v>14</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C236" t="s" s="2">
         <v>14</v>
@@ -9539,7 +9584,7 @@
         <v>14</v>
       </c>
       <c r="E236" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F236" t="s" s="2">
         <v>14</v>
@@ -9565,7 +9610,7 @@
         <v>14</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C237" t="s" s="2">
         <v>14</v>
@@ -9574,7 +9619,7 @@
         <v>14</v>
       </c>
       <c r="E237" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F237" t="s" s="2">
         <v>14</v>
@@ -9583,7 +9628,7 @@
         <v>14</v>
       </c>
       <c r="H237" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I237" t="s" s="2">
         <v>18</v>
@@ -9600,7 +9645,7 @@
         <v>14</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>14</v>
@@ -9609,7 +9654,7 @@
         <v>14</v>
       </c>
       <c r="E238" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F238" t="s" s="2">
         <v>14</v>
@@ -9635,7 +9680,7 @@
         <v>14</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C239" t="s" s="2">
         <v>14</v>
@@ -9644,7 +9689,7 @@
         <v>14</v>
       </c>
       <c r="E239" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F239" t="s" s="2">
         <v>14</v>
@@ -9670,7 +9715,7 @@
         <v>14</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C240" t="s" s="2">
         <v>14</v>
@@ -9679,7 +9724,7 @@
         <v>14</v>
       </c>
       <c r="E240" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F240" t="s" s="2">
         <v>14</v>
@@ -9688,7 +9733,7 @@
         <v>14</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>18</v>
@@ -9705,7 +9750,7 @@
         <v>14</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>14</v>
@@ -9714,7 +9759,7 @@
         <v>14</v>
       </c>
       <c r="E241" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F241" t="s" s="2">
         <v>14</v>
@@ -9723,7 +9768,7 @@
         <v>14</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I241" t="s" s="2">
         <v>18</v>
@@ -9740,7 +9785,7 @@
         <v>14</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C242" t="s" s="2">
         <v>14</v>
@@ -9749,7 +9794,7 @@
         <v>14</v>
       </c>
       <c r="E242" t="s" s="2">
-        <v>143</v>
+        <v>332</v>
       </c>
       <c r="F242" t="s" s="2">
         <v>14</v>
@@ -9775,7 +9820,7 @@
         <v>14</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>14</v>
@@ -9784,7 +9829,7 @@
         <v>14</v>
       </c>
       <c r="E243" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F243" t="s" s="2">
         <v>14</v>
@@ -9810,7 +9855,7 @@
         <v>14</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C244" t="s" s="2">
         <v>14</v>
@@ -9819,7 +9864,7 @@
         <v>14</v>
       </c>
       <c r="E244" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F244" t="s" s="2">
         <v>14</v>
@@ -9828,7 +9873,7 @@
         <v>14</v>
       </c>
       <c r="H244" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I244" t="s" s="2">
         <v>18</v>
@@ -9845,7 +9890,7 @@
         <v>14</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C245" t="s" s="2">
         <v>14</v>
@@ -9854,7 +9899,7 @@
         <v>14</v>
       </c>
       <c r="E245" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F245" t="s" s="2">
         <v>14</v>
@@ -9863,7 +9908,7 @@
         <v>14</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>18</v>
@@ -9880,7 +9925,7 @@
         <v>14</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C246" t="s" s="2">
         <v>14</v>
@@ -9889,7 +9934,7 @@
         <v>14</v>
       </c>
       <c r="E246" t="s" s="2">
-        <v>199</v>
+        <v>336</v>
       </c>
       <c r="F246" t="s" s="2">
         <v>14</v>
@@ -9912,28 +9957,28 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>329</v>
+        <v>14</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D247" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E247" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F247" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G247" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H247" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I247" t="s" s="2">
         <v>18</v>
@@ -9947,28 +9992,28 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D248" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E248" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="F248" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G248" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I248" t="s" s="2">
         <v>18</v>
@@ -9985,7 +10030,7 @@
         <v>14</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C249" t="s" s="2">
         <v>14</v>
@@ -9994,7 +10039,7 @@
         <v>14</v>
       </c>
       <c r="E249" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F249" t="s" s="2">
         <v>14</v>
@@ -10020,7 +10065,7 @@
         <v>14</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C250" t="s" s="2">
         <v>14</v>
@@ -10029,7 +10074,7 @@
         <v>14</v>
       </c>
       <c r="E250" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F250" t="s" s="2">
         <v>14</v>
@@ -10038,7 +10083,7 @@
         <v>14</v>
       </c>
       <c r="H250" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I250" t="s" s="2">
         <v>18</v>
@@ -10055,7 +10100,7 @@
         <v>14</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C251" t="s" s="2">
         <v>14</v>
@@ -10064,7 +10109,7 @@
         <v>14</v>
       </c>
       <c r="E251" t="s" s="2">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="F251" t="s" s="2">
         <v>14</v>
@@ -10090,7 +10135,7 @@
         <v>14</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C252" t="s" s="2">
         <v>14</v>
@@ -10099,7 +10144,7 @@
         <v>14</v>
       </c>
       <c r="E252" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F252" t="s" s="2">
         <v>14</v>
@@ -10108,7 +10153,7 @@
         <v>14</v>
       </c>
       <c r="H252" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I252" t="s" s="2">
         <v>18</v>
@@ -10125,7 +10170,7 @@
         <v>14</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C253" t="s" s="2">
         <v>14</v>
@@ -10134,7 +10179,7 @@
         <v>14</v>
       </c>
       <c r="E253" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F253" t="s" s="2">
         <v>14</v>
@@ -10160,7 +10205,7 @@
         <v>14</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C254" t="s" s="2">
         <v>14</v>
@@ -10169,7 +10214,7 @@
         <v>14</v>
       </c>
       <c r="E254" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F254" t="s" s="2">
         <v>14</v>
@@ -10192,28 +10237,28 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>340</v>
+        <v>14</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D255" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E255" t="s" s="2">
-        <v>342</v>
+        <v>204</v>
       </c>
       <c r="F255" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G255" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H255" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I255" t="s" s="2">
         <v>18</v>
@@ -10227,28 +10272,28 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E256" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F256" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G256" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I256" t="s" s="2">
         <v>18</v>
@@ -10262,28 +10307,28 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E257" t="s" s="2">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="F257" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G257" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H257" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I257" t="s" s="2">
         <v>18</v>
@@ -10300,7 +10345,7 @@
         <v>14</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C258" t="s" s="2">
         <v>14</v>
@@ -10309,7 +10354,7 @@
         <v>14</v>
       </c>
       <c r="E258" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F258" t="s" s="2">
         <v>14</v>
@@ -10318,7 +10363,7 @@
         <v>14</v>
       </c>
       <c r="H258" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I258" t="s" s="2">
         <v>18</v>
@@ -10335,7 +10380,7 @@
         <v>14</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C259" t="s" s="2">
         <v>14</v>
@@ -10344,7 +10389,7 @@
         <v>14</v>
       </c>
       <c r="E259" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F259" t="s" s="2">
         <v>14</v>
@@ -10353,7 +10398,7 @@
         <v>14</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I259" t="s" s="2">
         <v>18</v>
@@ -10367,28 +10412,28 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>346</v>
+        <v>14</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D260" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E260" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F260" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G260" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H260" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="I260" t="s" s="2">
         <v>18</v>
@@ -10405,7 +10450,7 @@
         <v>14</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C261" t="s" s="2">
         <v>14</v>
@@ -10414,7 +10459,7 @@
         <v>14</v>
       </c>
       <c r="E261" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F261" t="s" s="2">
         <v>14</v>
@@ -10423,7 +10468,7 @@
         <v>14</v>
       </c>
       <c r="H261" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I261" t="s" s="2">
         <v>18</v>
@@ -10440,7 +10485,7 @@
         <v>14</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C262" t="s" s="2">
         <v>14</v>
@@ -10449,7 +10494,7 @@
         <v>14</v>
       </c>
       <c r="E262" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F262" t="s" s="2">
         <v>14</v>
@@ -10475,7 +10520,7 @@
         <v>14</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C263" t="s" s="2">
         <v>14</v>
@@ -10484,7 +10529,7 @@
         <v>14</v>
       </c>
       <c r="E263" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F263" t="s" s="2">
         <v>14</v>
@@ -10507,28 +10552,28 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>14</v>
+        <v>355</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D264" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E264" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F264" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G264" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H264" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I264" t="s" s="2">
         <v>18</v>
@@ -10545,7 +10590,7 @@
         <v>14</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C265" t="s" s="2">
         <v>14</v>
@@ -10554,7 +10599,7 @@
         <v>14</v>
       </c>
       <c r="E265" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F265" t="s" s="2">
         <v>14</v>
@@ -10563,7 +10608,7 @@
         <v>14</v>
       </c>
       <c r="H265" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I265" t="s" s="2">
         <v>18</v>
@@ -10580,7 +10625,7 @@
         <v>14</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C266" t="s" s="2">
         <v>14</v>
@@ -10589,7 +10634,7 @@
         <v>14</v>
       </c>
       <c r="E266" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F266" t="s" s="2">
         <v>14</v>
@@ -10598,7 +10643,7 @@
         <v>14</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I266" t="s" s="2">
         <v>18</v>
@@ -10615,7 +10660,7 @@
         <v>14</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C267" t="s" s="2">
         <v>14</v>
@@ -10624,7 +10669,7 @@
         <v>14</v>
       </c>
       <c r="E267" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F267" t="s" s="2">
         <v>14</v>
@@ -10633,7 +10678,7 @@
         <v>14</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I267" t="s" s="2">
         <v>18</v>
@@ -10650,7 +10695,7 @@
         <v>14</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C268" t="s" s="2">
         <v>14</v>
@@ -10659,7 +10704,7 @@
         <v>14</v>
       </c>
       <c r="E268" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F268" t="s" s="2">
         <v>14</v>
@@ -10668,7 +10713,7 @@
         <v>14</v>
       </c>
       <c r="H268" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I268" t="s" s="2">
         <v>18</v>
@@ -10682,28 +10727,28 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>14</v>
+        <v>361</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D269" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E269" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F269" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G269" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H269" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I269" t="s" s="2">
         <v>18</v>
@@ -10720,7 +10765,7 @@
         <v>14</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C270" t="s" s="2">
         <v>14</v>
@@ -10729,7 +10774,7 @@
         <v>14</v>
       </c>
       <c r="E270" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F270" t="s" s="2">
         <v>14</v>
@@ -10738,7 +10783,7 @@
         <v>14</v>
       </c>
       <c r="H270" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I270" t="s" s="2">
         <v>18</v>
@@ -10755,7 +10800,7 @@
         <v>14</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C271" t="s" s="2">
         <v>14</v>
@@ -10764,7 +10809,7 @@
         <v>14</v>
       </c>
       <c r="E271" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F271" t="s" s="2">
         <v>14</v>
@@ -10790,7 +10835,7 @@
         <v>14</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C272" t="s" s="2">
         <v>14</v>
@@ -10799,7 +10844,7 @@
         <v>14</v>
       </c>
       <c r="E272" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F272" t="s" s="2">
         <v>14</v>
@@ -10825,7 +10870,7 @@
         <v>14</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C273" t="s" s="2">
         <v>14</v>
@@ -10834,7 +10879,7 @@
         <v>14</v>
       </c>
       <c r="E273" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F273" t="s" s="2">
         <v>14</v>
@@ -10860,7 +10905,7 @@
         <v>14</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C274" t="s" s="2">
         <v>14</v>
@@ -10869,7 +10914,7 @@
         <v>14</v>
       </c>
       <c r="E274" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F274" t="s" s="2">
         <v>14</v>
@@ -10878,7 +10923,7 @@
         <v>14</v>
       </c>
       <c r="H274" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I274" t="s" s="2">
         <v>18</v>
@@ -10895,7 +10940,7 @@
         <v>14</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C275" t="s" s="2">
         <v>14</v>
@@ -10904,7 +10949,7 @@
         <v>14</v>
       </c>
       <c r="E275" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F275" t="s" s="2">
         <v>14</v>
@@ -10930,7 +10975,7 @@
         <v>14</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C276" t="s" s="2">
         <v>14</v>
@@ -10939,7 +10984,7 @@
         <v>14</v>
       </c>
       <c r="E276" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F276" t="s" s="2">
         <v>14</v>
@@ -10948,7 +10993,7 @@
         <v>14</v>
       </c>
       <c r="H276" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I276" t="s" s="2">
         <v>18</v>
@@ -10965,7 +11010,7 @@
         <v>14</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C277" t="s" s="2">
         <v>14</v>
@@ -10974,7 +11019,7 @@
         <v>14</v>
       </c>
       <c r="E277" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F277" t="s" s="2">
         <v>14</v>
@@ -10983,7 +11028,7 @@
         <v>14</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I277" t="s" s="2">
         <v>18</v>
@@ -11000,7 +11045,7 @@
         <v>14</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C278" t="s" s="2">
         <v>14</v>
@@ -11009,7 +11054,7 @@
         <v>14</v>
       </c>
       <c r="E278" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F278" t="s" s="2">
         <v>14</v>
@@ -11035,7 +11080,7 @@
         <v>14</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C279" t="s" s="2">
         <v>14</v>
@@ -11044,7 +11089,7 @@
         <v>14</v>
       </c>
       <c r="E279" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F279" t="s" s="2">
         <v>14</v>
@@ -11053,7 +11098,7 @@
         <v>14</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I279" t="s" s="2">
         <v>18</v>
@@ -11070,7 +11115,7 @@
         <v>14</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C280" t="s" s="2">
         <v>14</v>
@@ -11079,7 +11124,7 @@
         <v>14</v>
       </c>
       <c r="E280" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F280" t="s" s="2">
         <v>14</v>
@@ -11088,7 +11133,7 @@
         <v>14</v>
       </c>
       <c r="H280" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I280" t="s" s="2">
         <v>18</v>
@@ -11102,28 +11147,28 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>369</v>
+        <v>14</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D281" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E281" t="s" s="2">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="F281" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G281" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H281" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I281" t="s" s="2">
         <v>18</v>
@@ -11140,7 +11185,7 @@
         <v>14</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C282" t="s" s="2">
         <v>14</v>
@@ -11149,7 +11194,7 @@
         <v>14</v>
       </c>
       <c r="E282" t="s" s="2">
-        <v>180</v>
+        <v>376</v>
       </c>
       <c r="F282" t="s" s="2">
         <v>14</v>
@@ -11158,7 +11203,7 @@
         <v>14</v>
       </c>
       <c r="H282" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I282" t="s" s="2">
         <v>18</v>
@@ -11175,7 +11220,7 @@
         <v>14</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C283" t="s" s="2">
         <v>14</v>
@@ -11184,7 +11229,7 @@
         <v>14</v>
       </c>
       <c r="E283" t="s" s="2">
-        <v>181</v>
+        <v>377</v>
       </c>
       <c r="F283" t="s" s="2">
         <v>14</v>
@@ -11193,7 +11238,7 @@
         <v>14</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I283" t="s" s="2">
         <v>18</v>
@@ -11210,7 +11255,7 @@
         <v>14</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C284" t="s" s="2">
         <v>14</v>
@@ -11219,7 +11264,7 @@
         <v>14</v>
       </c>
       <c r="E284" t="s" s="2">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="F284" t="s" s="2">
         <v>14</v>
@@ -11228,7 +11273,7 @@
         <v>14</v>
       </c>
       <c r="H284" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I284" t="s" s="2">
         <v>18</v>
@@ -11245,7 +11290,7 @@
         <v>14</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C285" t="s" s="2">
         <v>14</v>
@@ -11254,7 +11299,7 @@
         <v>14</v>
       </c>
       <c r="E285" t="s" s="2">
-        <v>183</v>
+        <v>379</v>
       </c>
       <c r="F285" t="s" s="2">
         <v>14</v>
@@ -11263,7 +11308,7 @@
         <v>14</v>
       </c>
       <c r="H285" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I285" t="s" s="2">
         <v>18</v>
@@ -11280,7 +11325,7 @@
         <v>14</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C286" t="s" s="2">
         <v>14</v>
@@ -11289,7 +11334,7 @@
         <v>14</v>
       </c>
       <c r="E286" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="F286" t="s" s="2">
         <v>14</v>
@@ -11298,7 +11343,7 @@
         <v>14</v>
       </c>
       <c r="H286" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I286" t="s" s="2">
         <v>18</v>
@@ -11315,7 +11360,7 @@
         <v>14</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C287" t="s" s="2">
         <v>14</v>
@@ -11324,7 +11369,7 @@
         <v>14</v>
       </c>
       <c r="E287" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F287" t="s" s="2">
         <v>14</v>
@@ -11333,7 +11378,7 @@
         <v>14</v>
       </c>
       <c r="H287" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I287" t="s" s="2">
         <v>18</v>
@@ -11347,28 +11392,28 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>373</v>
+        <v>14</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D288" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E288" t="s" s="2">
-        <v>181</v>
+        <v>382</v>
       </c>
       <c r="F288" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G288" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I288" t="s" s="2">
         <v>18</v>
@@ -11385,7 +11430,7 @@
         <v>14</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C289" t="s" s="2">
         <v>14</v>
@@ -11394,7 +11439,7 @@
         <v>14</v>
       </c>
       <c r="E289" t="s" s="2">
-        <v>180</v>
+        <v>383</v>
       </c>
       <c r="F289" t="s" s="2">
         <v>14</v>
@@ -11403,7 +11448,7 @@
         <v>14</v>
       </c>
       <c r="H289" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I289" t="s" s="2">
         <v>18</v>
@@ -11417,25 +11462,25 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>14</v>
+        <v>384</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D290" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E290" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F290" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G290" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H290" t="s" s="2">
         <v>17</v>
@@ -11455,7 +11500,7 @@
         <v>14</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C291" t="s" s="2">
         <v>14</v>
@@ -11464,7 +11509,7 @@
         <v>14</v>
       </c>
       <c r="E291" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F291" t="s" s="2">
         <v>14</v>
@@ -11490,7 +11535,7 @@
         <v>14</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C292" t="s" s="2">
         <v>14</v>
@@ -11499,7 +11544,7 @@
         <v>14</v>
       </c>
       <c r="E292" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F292" t="s" s="2">
         <v>14</v>
@@ -11525,7 +11570,7 @@
         <v>14</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C293" t="s" s="2">
         <v>14</v>
@@ -11534,7 +11579,7 @@
         <v>14</v>
       </c>
       <c r="E293" t="s" s="2">
-        <v>375</v>
+        <v>187</v>
       </c>
       <c r="F293" t="s" s="2">
         <v>14</v>
@@ -11560,7 +11605,7 @@
         <v>14</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C294" t="s" s="2">
         <v>14</v>
@@ -11569,7 +11614,7 @@
         <v>14</v>
       </c>
       <c r="E294" t="s" s="2">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="F294" t="s" s="2">
         <v>14</v>
@@ -11592,25 +11637,25 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>377</v>
+        <v>14</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D295" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E295" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F295" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G295" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H295" t="s" s="2">
         <v>17</v>
@@ -11627,25 +11672,25 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>380</v>
+        <v>14</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D296" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E296" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F296" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G296" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H296" t="s" s="2">
         <v>17</v>
@@ -11657,6 +11702,321 @@
         <v>14</v>
       </c>
       <c r="K296" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B297" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C297" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D297" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E297" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="F297" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G297" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H297" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I297" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J297" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K297" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B298" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C298" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D298" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E298" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="F298" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G298" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H298" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I298" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J298" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K298" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C299" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D299" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E299" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="F299" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G299" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H299" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I299" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J299" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K299" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C300" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D300" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E300" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="F300" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G300" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H300" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I300" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J300" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K300" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C301" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D301" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E301" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="F301" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G301" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H301" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I301" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J301" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K301" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C302" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D302" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E302" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="F302" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G302" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H302" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I302" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J302" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K302" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C303" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D303" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="F303" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G303" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H303" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I303" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J303" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K303" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B304" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C304" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D304" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E304" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="F304" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G304" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H304" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I304" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J304" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K304" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B305" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C305" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D305" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E305" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="F305" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G305" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H305" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I305" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J305" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K305" t="s" s="2">
         <v>14</v>
       </c>
     </row>
